--- a/form_reporting_templates/Form-3AA.xlsx
+++ b/form_reporting_templates/Form-3AA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05F04C0-FF5D-455F-9A5F-452516F60E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F89676-6EFC-4336-A952-80E1A8E37D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dV4x4UN/0VvyFBtyDoIunEcfcYZ4v5uYvk1jvD8vzzLvThv6/Y3drfR5cofF0NFHWy380GJVRhDwCQZMDGpoHQ==" workbookSaltValue="zVm6vMVUmkQ3Bwhy95qLKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -120,18 +120,9 @@
     <t>Raising</t>
   </si>
   <si>
-    <t>IOTC form 3-AA | metadata</t>
-  </si>
-  <si>
-    <t>3-AA</t>
-  </si>
-  <si>
     <t>Fishery</t>
   </si>
   <si>
-    <t>IOTC form 3-AA | data</t>
-  </si>
-  <si>
     <t>aFOB</t>
   </si>
   <si>
@@ -145,6 +136,15 @@
   </si>
   <si>
     <t>Finalisation date</t>
+  </si>
+  <si>
+    <t>IOTC Form 3AA | data</t>
+  </si>
+  <si>
+    <t>IOTC Form 3AA | metadata</t>
+  </si>
+  <si>
+    <t>3AA</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1381,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="85" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
@@ -1405,7 +1405,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="33" t="s">
@@ -1453,7 +1453,7 @@
       <c r="D8" s="84"/>
       <c r="E8" s="24"/>
       <c r="F8" s="84" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8" s="84"/>
       <c r="H8" s="20"/>
@@ -1474,12 +1474,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="20"/>
@@ -1496,7 +1496,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="24"/>
@@ -1574,7 +1574,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="24"/>
       <c r="F19" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="20"/>
@@ -1700,7 +1700,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="i7VoDBOA0hBYPBa2djIdk3byIntC4Y9arvFkGXO5lFjxnPKe5gc1LTpB2ZJHyzhEP04Sm0c0FCoPYOj8U4gZPg==" saltValue="9JVA5TYxnKUdz56fD0w9cg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EIP+9Z8QYKJ4XuL6IS/sV24uE1m1RIfJhFxp1rkbkMiL8RwJIJQ6WTZyXFGDLNNRkw0dOlFqDt1c1qtsH9+/5A==" saltValue="vReN7Z2YvWegK95EYMZWLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="2" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="85" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
@@ -2199,7 +2199,7 @@
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="H5" s="78" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I5" s="63"/>
       <c r="J5" s="64"/>
@@ -2309,7 +2309,7 @@
       <c r="C6" s="97"/>
       <c r="D6" s="97"/>
       <c r="E6" s="96" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F6" s="97"/>
       <c r="G6" s="98"/>
@@ -3042,7 +3042,7 @@
       <c r="G57" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4JkcyUZ7Or6KWTX6ZTRE6YWMQ0ABt7iQAnJozRdZW3OcR3+U72zGgTfypiVDrpzAAALMugC1F/Ard+ZHpfR6eQ==" saltValue="02sJHYbstHQiB2BnTNkuTg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uPodclcUZ3mTHXNJFrNv5UeCyq1mkIOiJg9kBXWyFkUE9vAY+liw52pu9BayEjaAvodeM3mNHE7jlUnodPIKcg==" saltValue="OJ4eVIGD+ICJgTlZ7js1ag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="I3:DD3"/>
     <mergeCell ref="B2:G3"/>

--- a/form_reporting_templates/Form-3AA.xlsx
+++ b/form_reporting_templates/Form-3AA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F89676-6EFC-4336-A952-80E1A8E37D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FD234A-7FC0-4705-8A4C-1CFD3AD1BBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dV4x4UN/0VvyFBtyDoIunEcfcYZ4v5uYvk1jvD8vzzLvThv6/Y3drfR5cofF0NFHWy380GJVRhDwCQZMDGpoHQ==" workbookSaltValue="zVm6vMVUmkQ3Bwhy95qLKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -51,9 +51,6 @@
     <t>General information</t>
   </si>
   <si>
-    <t>Flag country</t>
-  </si>
-  <si>
     <t>Reporting year</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>3AA</t>
+  </si>
+  <si>
+    <t>Flag state</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1381,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
@@ -1402,17 +1402,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="32"/>
       <c r="C4" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="37"/>
     </row>
@@ -1428,7 +1428,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="21"/>
       <c r="C6" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -1453,7 +1453,7 @@
       <c r="D8" s="84"/>
       <c r="E8" s="24"/>
       <c r="F8" s="84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="84"/>
       <c r="H8" s="20"/>
@@ -1474,12 +1474,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="20"/>
@@ -1496,7 +1496,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="24"/>
@@ -1507,7 +1507,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="24"/>
@@ -1556,12 +1556,12 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="24"/>
       <c r="F18" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="20"/>
@@ -1569,12 +1569,12 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="24"/>
       <c r="F19" s="75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="20"/>
@@ -1582,7 +1582,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="29" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="24"/>
@@ -1611,7 +1611,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="21"/>
       <c r="C23" s="28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="24"/>
@@ -1631,7 +1631,7 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="24"/>
@@ -1660,7 +1660,7 @@
     <row r="28" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="21"/>
       <c r="C28" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="24"/>
@@ -1700,7 +1700,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EIP+9Z8QYKJ4XuL6IS/sV24uE1m1RIfJhFxp1rkbkMiL8RwJIJQ6WTZyXFGDLNNRkw0dOlFqDt1c1qtsH9+/5A==" saltValue="vReN7Z2YvWegK95EYMZWLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VoiU5WebjexVvjCjznz+vqdJJ0AoPPPHv+K9mx92vjqh7LcDvklWJmEtnoYaPhIp+7fnHWtBCBEPIx4GT1b48Q==" saltValue="1KfqEXaV6O7cJZ9lU1yD7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -1708,13 +1708,13 @@
     <mergeCell ref="B2:H3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25 C19:C20 F19" xr:uid="{1EDF3C0A-2C62-4105-B534-7B9FBB507AE1}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25 F19 C19:C20" xr:uid="{1EDF3C0A-2C62-4105-B534-7B9FBB507AE1}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" location="entities" xr:uid="{145A36E7-23E2-4F23-9423-3ABF5B1644A9}"/>
-    <hyperlink ref="C20" r:id="rId2" location="countries" xr:uid="{D830AF7F-6DD6-4CCC-B4E3-A0AB89AFD734}"/>
+    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{D830AF7F-6DD6-4CCC-B4E3-A0AB89AFD734}"/>
     <hyperlink ref="C25" r:id="rId3" location="types" xr:uid="{D5D73A23-873B-4484-A869-D712A7A31856}"/>
     <hyperlink ref="F19" r:id="rId4" location="fisheries" xr:uid="{1FD9F71A-53CE-415C-90BB-4F39ADFA7B9E}"/>
   </hyperlinks>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="2" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
@@ -1978,7 +1978,7 @@
       <c r="G3" s="95"/>
       <c r="H3" s="57"/>
       <c r="I3" s="91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="92"/>
       <c r="K3" s="92"/>
@@ -2088,7 +2088,7 @@
       <c r="F4" s="56"/>
       <c r="G4" s="56"/>
       <c r="H4" s="77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="60"/>
       <c r="J4" s="61"/>
@@ -2199,7 +2199,7 @@
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="H5" s="78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="63"/>
       <c r="J5" s="64"/>
@@ -2304,17 +2304,17 @@
     </row>
     <row r="6" spans="2:108" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="97"/>
       <c r="D6" s="97"/>
       <c r="E6" s="96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="97"/>
       <c r="G6" s="98"/>
       <c r="H6" s="76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63"/>
       <c r="J6" s="64"/>
@@ -2419,25 +2419,25 @@
     </row>
     <row r="7" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="E7" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="47" t="s">
+      <c r="F7" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="G7" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="H7" s="79" t="s">
         <v>22</v>
-      </c>
-      <c r="H7" s="79" t="s">
-        <v>23</v>
       </c>
       <c r="I7" s="66"/>
       <c r="J7" s="67"/>

--- a/form_reporting_templates/Form-3AA.xlsx
+++ b/form_reporting_templates/Form-3AA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FD234A-7FC0-4705-8A4C-1CFD3AD1BBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90D57A8-22E1-4003-97AC-E3A948942B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dV4x4UN/0VvyFBtyDoIunEcfcYZ4v5uYvk1jvD8vzzLvThv6/Y3drfR5cofF0NFHWy380GJVRhDwCQZMDGpoHQ==" workbookSaltValue="zVm6vMVUmkQ3Bwhy95qLKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -48,6 +48,9 @@
     <t>Full name</t>
   </si>
   <si>
+    <t>Organization</t>
+  </si>
+  <si>
     <t>General information</t>
   </si>
   <si>
@@ -84,9 +87,6 @@
     <t>Reporting entity</t>
   </si>
   <si>
-    <t>Reporting month</t>
-  </si>
-  <si>
     <t>Day of month</t>
   </si>
   <si>
@@ -126,7 +126,7 @@
     <t>Type of fate</t>
   </si>
   <si>
-    <t>Organisation</t>
+    <t>Month</t>
   </si>
   <si>
     <t>email</t>
@@ -141,10 +141,10 @@
     <t>IOTC Form 3AA | metadata</t>
   </si>
   <si>
+    <t>Flag state</t>
+  </si>
+  <si>
     <t>3AA</t>
-  </si>
-  <si>
-    <t>Flag state</t>
   </si>
 </sst>
 </file>
@@ -275,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -727,6 +727,30 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -736,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -940,9 +964,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -960,6 +981,24 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1380,39 +1419,39 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="88"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="32"/>
       <c r="C4" s="33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="37"/>
     </row>
@@ -1428,7 +1467,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="21"/>
       <c r="C6" s="28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -1447,15 +1486,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="21"/>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="84"/>
+      <c r="D8" s="88"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="84"/>
+      <c r="F8" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="88"/>
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1507,7 +1546,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="24"/>
@@ -1536,7 +1575,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="21"/>
       <c r="C16" s="28" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
@@ -1556,33 +1595,29 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="5"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="5"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="24"/>
@@ -1611,7 +1646,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="21"/>
       <c r="C23" s="28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="24"/>
@@ -1631,7 +1666,7 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="24"/>
@@ -1660,7 +1695,7 @@
     <row r="28" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="21"/>
       <c r="C28" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="24"/>
@@ -1679,11 +1714,11 @@
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="83"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="87"/>
       <c r="H30" s="20"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1700,7 +1735,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VoiU5WebjexVvjCjznz+vqdJJ0AoPPPHv+K9mx92vjqh7LcDvklWJmEtnoYaPhIp+7fnHWtBCBEPIx4GT1b48Q==" saltValue="1KfqEXaV6O7cJZ9lU1yD7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XWb1uwy1ExnRdFPkRj5azUK6n737P6b9od3enkYA6SHIwYpUh215KD916Pxa3f12lShq/c8+hWnKaW9OeMcOZg==" saltValue="lXh6uyEhLIklIU9ngl4aFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -1708,7 +1743,7 @@
     <mergeCell ref="B2:H3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25 F19 C19:C20" xr:uid="{1EDF3C0A-2C62-4105-B534-7B9FBB507AE1}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25 C19:C20" xr:uid="{1EDF3C0A-2C62-4105-B534-7B9FBB507AE1}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1716,16 +1751,15 @@
     <hyperlink ref="C19" r:id="rId1" location="entities" xr:uid="{145A36E7-23E2-4F23-9423-3ABF5B1644A9}"/>
     <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{D830AF7F-6DD6-4CCC-B4E3-A0AB89AFD734}"/>
     <hyperlink ref="C25" r:id="rId3" location="types" xr:uid="{D5D73A23-873B-4484-A869-D712A7A31856}"/>
-    <hyperlink ref="F19" r:id="rId4" location="fisheries" xr:uid="{1FD9F71A-53CE-415C-90BB-4F39ADFA7B9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
-  <dimension ref="B1:DD57"/>
+  <dimension ref="B1:DF57"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
@@ -1738,26 +1772,27 @@
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="48" customWidth="1"/>
-    <col min="6" max="6" width="10" style="50" customWidth="1"/>
-    <col min="7" max="7" width="10" style="51" customWidth="1"/>
-    <col min="8" max="8" width="12" style="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="72"/>
-    <col min="10" max="107" width="9.140625" style="73"/>
-    <col min="108" max="108" width="9.140625" style="74"/>
+    <col min="3" max="4" width="12.85546875" style="83" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="48" customWidth="1"/>
+    <col min="8" max="8" width="10" style="50" customWidth="1"/>
+    <col min="9" max="9" width="10" style="51" customWidth="1"/>
+    <col min="10" max="10" width="12" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="72"/>
+    <col min="12" max="109" width="9.140625" style="73"/>
+    <col min="110" max="110" width="9.140625" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:108" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:110" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="6"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="49"/>
-      <c r="H1"/>
-      <c r="I1"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -1857,18 +1892,20 @@
       <c r="DB1"/>
       <c r="DC1"/>
       <c r="DD1"/>
-    </row>
-    <row r="2" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
+      <c r="DE1"/>
+      <c r="DF1"/>
+    </row>
+    <row r="2" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
       <c r="J2" s="54"/>
       <c r="K2" s="54"/>
       <c r="L2" s="54"/>
@@ -1967,132 +2004,136 @@
       <c r="DA2" s="54"/>
       <c r="DB2" s="54"/>
       <c r="DC2" s="54"/>
-      <c r="DD2" s="55"/>
-    </row>
-    <row r="3" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="91" t="s">
+      <c r="DD2" s="54"/>
+      <c r="DE2" s="54"/>
+      <c r="DF2" s="55"/>
+    </row>
+    <row r="3" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="92"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="92"/>
-      <c r="AG3" s="92"/>
-      <c r="AH3" s="92"/>
-      <c r="AI3" s="92"/>
-      <c r="AJ3" s="92"/>
-      <c r="AK3" s="92"/>
-      <c r="AL3" s="92"/>
-      <c r="AM3" s="92"/>
-      <c r="AN3" s="92"/>
-      <c r="AO3" s="92"/>
-      <c r="AP3" s="92"/>
-      <c r="AQ3" s="92"/>
-      <c r="AR3" s="92"/>
-      <c r="AS3" s="92"/>
-      <c r="AT3" s="92"/>
-      <c r="AU3" s="92"/>
-      <c r="AV3" s="92"/>
-      <c r="AW3" s="92"/>
-      <c r="AX3" s="92"/>
-      <c r="AY3" s="92"/>
-      <c r="AZ3" s="92"/>
-      <c r="BA3" s="92"/>
-      <c r="BB3" s="92"/>
-      <c r="BC3" s="92"/>
-      <c r="BD3" s="92"/>
-      <c r="BE3" s="92"/>
-      <c r="BF3" s="92"/>
-      <c r="BG3" s="92"/>
-      <c r="BH3" s="92"/>
-      <c r="BI3" s="92"/>
-      <c r="BJ3" s="92"/>
-      <c r="BK3" s="92"/>
-      <c r="BL3" s="92"/>
-      <c r="BM3" s="92"/>
-      <c r="BN3" s="92"/>
-      <c r="BO3" s="92"/>
-      <c r="BP3" s="92"/>
-      <c r="BQ3" s="92"/>
-      <c r="BR3" s="92"/>
-      <c r="BS3" s="92"/>
-      <c r="BT3" s="92"/>
-      <c r="BU3" s="92"/>
-      <c r="BV3" s="92"/>
-      <c r="BW3" s="92"/>
-      <c r="BX3" s="92"/>
-      <c r="BY3" s="92"/>
-      <c r="BZ3" s="92"/>
-      <c r="CA3" s="92"/>
-      <c r="CB3" s="92"/>
-      <c r="CC3" s="92"/>
-      <c r="CD3" s="92"/>
-      <c r="CE3" s="92"/>
-      <c r="CF3" s="92"/>
-      <c r="CG3" s="92"/>
-      <c r="CH3" s="92"/>
-      <c r="CI3" s="92"/>
-      <c r="CJ3" s="92"/>
-      <c r="CK3" s="92"/>
-      <c r="CL3" s="92"/>
-      <c r="CM3" s="92"/>
-      <c r="CN3" s="92"/>
-      <c r="CO3" s="92"/>
-      <c r="CP3" s="92"/>
-      <c r="CQ3" s="92"/>
-      <c r="CR3" s="92"/>
-      <c r="CS3" s="92"/>
-      <c r="CT3" s="92"/>
-      <c r="CU3" s="92"/>
-      <c r="CV3" s="92"/>
-      <c r="CW3" s="92"/>
-      <c r="CX3" s="92"/>
-      <c r="CY3" s="92"/>
-      <c r="CZ3" s="92"/>
-      <c r="DA3" s="92"/>
-      <c r="DB3" s="92"/>
-      <c r="DC3" s="92"/>
-      <c r="DD3" s="93"/>
-    </row>
-    <row r="4" spans="2:108" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="96"/>
+      <c r="AI3" s="96"/>
+      <c r="AJ3" s="96"/>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="96"/>
+      <c r="AM3" s="96"/>
+      <c r="AN3" s="96"/>
+      <c r="AO3" s="96"/>
+      <c r="AP3" s="96"/>
+      <c r="AQ3" s="96"/>
+      <c r="AR3" s="96"/>
+      <c r="AS3" s="96"/>
+      <c r="AT3" s="96"/>
+      <c r="AU3" s="96"/>
+      <c r="AV3" s="96"/>
+      <c r="AW3" s="96"/>
+      <c r="AX3" s="96"/>
+      <c r="AY3" s="96"/>
+      <c r="AZ3" s="96"/>
+      <c r="BA3" s="96"/>
+      <c r="BB3" s="96"/>
+      <c r="BC3" s="96"/>
+      <c r="BD3" s="96"/>
+      <c r="BE3" s="96"/>
+      <c r="BF3" s="96"/>
+      <c r="BG3" s="96"/>
+      <c r="BH3" s="96"/>
+      <c r="BI3" s="96"/>
+      <c r="BJ3" s="96"/>
+      <c r="BK3" s="96"/>
+      <c r="BL3" s="96"/>
+      <c r="BM3" s="96"/>
+      <c r="BN3" s="96"/>
+      <c r="BO3" s="96"/>
+      <c r="BP3" s="96"/>
+      <c r="BQ3" s="96"/>
+      <c r="BR3" s="96"/>
+      <c r="BS3" s="96"/>
+      <c r="BT3" s="96"/>
+      <c r="BU3" s="96"/>
+      <c r="BV3" s="96"/>
+      <c r="BW3" s="96"/>
+      <c r="BX3" s="96"/>
+      <c r="BY3" s="96"/>
+      <c r="BZ3" s="96"/>
+      <c r="CA3" s="96"/>
+      <c r="CB3" s="96"/>
+      <c r="CC3" s="96"/>
+      <c r="CD3" s="96"/>
+      <c r="CE3" s="96"/>
+      <c r="CF3" s="96"/>
+      <c r="CG3" s="96"/>
+      <c r="CH3" s="96"/>
+      <c r="CI3" s="96"/>
+      <c r="CJ3" s="96"/>
+      <c r="CK3" s="96"/>
+      <c r="CL3" s="96"/>
+      <c r="CM3" s="96"/>
+      <c r="CN3" s="96"/>
+      <c r="CO3" s="96"/>
+      <c r="CP3" s="96"/>
+      <c r="CQ3" s="96"/>
+      <c r="CR3" s="96"/>
+      <c r="CS3" s="96"/>
+      <c r="CT3" s="96"/>
+      <c r="CU3" s="96"/>
+      <c r="CV3" s="96"/>
+      <c r="CW3" s="96"/>
+      <c r="CX3" s="96"/>
+      <c r="CY3" s="96"/>
+      <c r="CZ3" s="96"/>
+      <c r="DA3" s="96"/>
+      <c r="DB3" s="96"/>
+      <c r="DC3" s="96"/>
+      <c r="DD3" s="96"/>
+      <c r="DE3" s="96"/>
+      <c r="DF3" s="97"/>
+    </row>
+    <row r="4" spans="2:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="53"/>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
       <c r="G4" s="56"/>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="61"/>
       <c r="M4" s="61"/>
       <c r="N4" s="61"/>
@@ -2189,21 +2230,23 @@
       <c r="DA4" s="61"/>
       <c r="DB4" s="61"/>
       <c r="DC4" s="61"/>
-      <c r="DD4" s="62"/>
-    </row>
-    <row r="5" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DD4" s="61"/>
+      <c r="DE4" s="61"/>
+      <c r="DF4" s="62"/>
+    </row>
+    <row r="5" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="53"/>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
-      <c r="H5" s="78" t="s">
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
+      <c r="K5" s="63"/>
       <c r="L5" s="64"/>
       <c r="M5" s="64"/>
       <c r="N5" s="64"/>
@@ -2300,25 +2343,27 @@
       <c r="DA5" s="64"/>
       <c r="DB5" s="64"/>
       <c r="DC5" s="64"/>
-      <c r="DD5" s="65"/>
-    </row>
-    <row r="6" spans="2:108" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="96" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="96" t="s">
+      <c r="DD5" s="64"/>
+      <c r="DE5" s="64"/>
+      <c r="DF5" s="65"/>
+    </row>
+    <row r="6" spans="2:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="101"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="64"/>
       <c r="M6" s="64"/>
       <c r="N6" s="64"/>
@@ -2415,33 +2460,39 @@
       <c r="DA6" s="64"/>
       <c r="DB6" s="64"/>
       <c r="DC6" s="64"/>
-      <c r="DD6" s="65"/>
-    </row>
-    <row r="7" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="DD6" s="64"/>
+      <c r="DE6" s="64"/>
+      <c r="DF6" s="65"/>
+    </row>
+    <row r="7" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="D7" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="F7" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="G7" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="H7" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="I7" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="J7" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
+      <c r="K7" s="66"/>
       <c r="L7" s="67"/>
       <c r="M7" s="67"/>
       <c r="N7" s="67"/>
@@ -2538,19 +2589,21 @@
       <c r="DA7" s="67"/>
       <c r="DB7" s="67"/>
       <c r="DC7" s="67"/>
-      <c r="DD7" s="68"/>
-    </row>
-    <row r="8" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DD7" s="67"/>
+      <c r="DE7" s="67"/>
+      <c r="DF7" s="68"/>
+    </row>
+    <row r="8" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="69"/>
       <c r="L8" s="70"/>
       <c r="M8" s="70"/>
       <c r="N8" s="70"/>
@@ -2647,432 +2700,533 @@
       <c r="DA8" s="70"/>
       <c r="DB8" s="70"/>
       <c r="DC8" s="70"/>
-      <c r="DD8" s="71"/>
-    </row>
-    <row r="9" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DD8" s="70"/>
+      <c r="DE8" s="70"/>
+      <c r="DF8" s="71"/>
+    </row>
+    <row r="9" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="43"/>
-    </row>
-    <row r="10" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="43"/>
-    </row>
-    <row r="11" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="43"/>
-    </row>
-    <row r="12" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="43"/>
+    </row>
+    <row r="12" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="43"/>
-    </row>
-    <row r="13" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="43"/>
-    </row>
-    <row r="14" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="43"/>
+    </row>
+    <row r="14" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="43"/>
-    </row>
-    <row r="15" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="43"/>
+    </row>
+    <row r="15" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="43"/>
-    </row>
-    <row r="16" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="43"/>
+    </row>
+    <row r="16" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="43"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="43"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="43"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="43"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="43"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="43"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="43"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="43"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="43"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="43"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="43"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="43"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="43"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="43"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="43"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="43"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="43"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="43"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="43"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="43"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="43"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="43"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="43"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="43"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="43"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="43"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="43"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="43"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="43"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="43"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="43"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="43"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="43"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="43"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="43"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="43"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="43"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="43"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="43"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="43"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="43"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="43"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="43"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="43"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="43"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="43"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="43"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="43"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="43"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="43"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="43"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="43"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="43"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="43"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="43"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="43"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="43"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="43"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="43"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="43"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="43"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="43"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="43"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="43"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="43"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="43"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="43"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="43"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="43"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="43"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="43"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="43"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="43"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="43"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="43"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="43"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="43"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="43"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="43"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uPodclcUZ3mTHXNJFrNv5UeCyq1mkIOiJg9kBXWyFkUE9vAY+liw52pu9BayEjaAvodeM3mNHE7jlUnodPIKcg==" saltValue="OJ4eVIGD+ICJgTlZ7js1ag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IhkS4ZZGrC0apCJlXugchWySxz5yhMBN2Co7XzWa9fui5GUbL0KJ3JyWZ/kH/6y3Zd2Pz/UGEC76hXyqb69vrA==" saltValue="2IsUyBOe93s6rv3V5cnssw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
-    <mergeCell ref="I3:DD3"/>
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="K3:DF3"/>
+    <mergeCell ref="B2:I3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
-  <conditionalFormatting sqref="B8:G1048576">
+  <conditionalFormatting sqref="B8:I1048576">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>B8=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:DD1048576">
+  <conditionalFormatting sqref="K8:DF1048576">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>I8=""</formula>
+      <formula>K8=""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 G7 H4:H7" xr:uid="{86B40B65-30E0-465F-9E4E-BDD2D0A3ECB3}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7 I7 J4:J7 D7" xr:uid="{86B40B65-30E0-465F-9E4E-BDD2D0A3ECB3}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1" location="FOBactivityTypes" xr:uid="{3C4B7339-15DC-4AE3-BA6F-6F6FE197BAF1}"/>
-    <hyperlink ref="F7" r:id="rId2" location="FOBtypes" xr:uid="{0D9BDFCB-0E93-45FA-A9F8-2F2F4961FF03}"/>
-    <hyperlink ref="H4" r:id="rId3" location="allSpecies" xr:uid="{C9772F96-5988-4592-A714-5A7067090A05}"/>
-    <hyperlink ref="H5" r:id="rId4" location="typesOfFate" xr:uid="{8E08F5E0-486B-464D-9A3A-733FD4CA38A4}"/>
-    <hyperlink ref="H7" r:id="rId5" location="catchUnits" xr:uid="{9192771E-64B4-4C0E-959B-793135738F4C}"/>
-    <hyperlink ref="H6" r:id="rId6" location="raisings" xr:uid="{C0444C52-8B48-4E54-9861-D973CED3CDC3}"/>
+    <hyperlink ref="I7" r:id="rId1" location="FOBactivityTypes" xr:uid="{3C4B7339-15DC-4AE3-BA6F-6F6FE197BAF1}"/>
+    <hyperlink ref="H7" r:id="rId2" location="FOBtypes" xr:uid="{0D9BDFCB-0E93-45FA-A9F8-2F2F4961FF03}"/>
+    <hyperlink ref="J4" r:id="rId3" location="allSpecies" xr:uid="{C9772F96-5988-4592-A714-5A7067090A05}"/>
+    <hyperlink ref="J5" r:id="rId4" location="typesOfFate" xr:uid="{8E08F5E0-486B-464D-9A3A-733FD4CA38A4}"/>
+    <hyperlink ref="J7" r:id="rId5" location="catchUnits" xr:uid="{9192771E-64B4-4C0E-959B-793135738F4C}"/>
+    <hyperlink ref="J6" r:id="rId6" location="raisings" xr:uid="{C0444C52-8B48-4E54-9861-D973CED3CDC3}"/>
+    <hyperlink ref="D7" r:id="rId7" location="fisheries" xr:uid="{9B90DF27-D07F-4162-B42D-F8BE1A2C0F3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/form_reporting_templates/Form-3AA.xlsx
+++ b/form_reporting_templates/Form-3AA.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90D57A8-22E1-4003-97AC-E3A948942B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8206C230-BB87-4684-8DFB-B509CA4124B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dV4x4UN/0VvyFBtyDoIunEcfcYZ4v5uYvk1jvD8vzzLvThv6/Y3drfR5cofF0NFHWy380GJVRhDwCQZMDGpoHQ==" workbookSaltValue="zVm6vMVUmkQ3Bwhy95qLKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Focal point</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>3AA</t>
+  </si>
+  <si>
+    <t>FI</t>
   </si>
 </sst>
 </file>
@@ -234,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +277,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="39">
     <border>
@@ -760,7 +769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1058,6 +1067,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1668,7 +1680,9 @@
       <c r="C25" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="103" t="s">
+        <v>36</v>
+      </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
@@ -1735,7 +1749,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XWb1uwy1ExnRdFPkRj5azUK6n737P6b9od3enkYA6SHIwYpUh215KD916Pxa3f12lShq/c8+hWnKaW9OeMcOZg==" saltValue="lXh6uyEhLIklIU9ngl4aFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="48NegoWQFUa2Gwl7wO/f4V99zs0Uu6IFoRo5sKGkhDSLyvoX+N1luPbgom8BN1ABpF4rPr1qpEYZhZ3+1fchbQ==" saltValue="pkiOwF4h2TRzLirGjueSjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>

--- a/form_reporting_templates/Form-3AA.xlsx
+++ b/form_reporting_templates/Form-3AA.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8206C230-BB87-4684-8DFB-B509CA4124B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11DEFFC-56BB-43DB-B68D-D3C419DDFF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dV4x4UN/0VvyFBtyDoIunEcfcYZ4v5uYvk1jvD8vzzLvThv6/Y3drfR5cofF0NFHWy380GJVRhDwCQZMDGpoHQ==" workbookSaltValue="zVm6vMVUmkQ3Bwhy95qLKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>Form</t>
   </si>
   <si>
-    <t>Main stratum</t>
-  </si>
-  <si>
     <t>1.0.0</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>FI</t>
+  </si>
+  <si>
+    <t>Main elements</t>
   </si>
 </sst>
 </file>
@@ -284,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -464,30 +464,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -620,17 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -745,10 +710,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -759,7 +722,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -769,7 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -808,15 +771,15 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -853,40 +816,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -904,172 +858,190 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1431,24 +1403,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="91"/>
+      <c r="B2" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="94"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="32"/>
@@ -1456,14 +1428,14 @@
         <v>11</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="33" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="37"/>
     </row>
@@ -1498,15 +1470,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="21"/>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="88"/>
+      <c r="D8" s="86"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="88"/>
+      <c r="G8" s="86"/>
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1525,12 +1497,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="20"/>
@@ -1547,7 +1519,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="24"/>
@@ -1618,7 +1590,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="24"/>
@@ -1629,7 +1601,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="24"/>
@@ -1678,10 +1650,10 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="103" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>35</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -1728,11 +1700,11 @@
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="87"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="85"/>
       <c r="H30" s="20"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1786,16 +1758,16 @@
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.85546875" style="83" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" style="77" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="13" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="48" customWidth="1"/>
-    <col min="8" max="8" width="10" style="50" customWidth="1"/>
-    <col min="9" max="9" width="10" style="51" customWidth="1"/>
-    <col min="10" max="10" width="12" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="72"/>
-    <col min="12" max="109" width="9.140625" style="73"/>
-    <col min="110" max="110" width="9.140625" style="74"/>
+    <col min="7" max="7" width="17.140625" style="45" customWidth="1"/>
+    <col min="8" max="8" width="10" style="47" customWidth="1"/>
+    <col min="9" max="9" width="10" style="48" customWidth="1"/>
+    <col min="10" max="10" width="12" style="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="67"/>
+    <col min="12" max="109" width="9.140625" style="68"/>
+    <col min="110" max="110" width="9.140625" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:110" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1804,9 +1776,9 @@
       <c r="D1" s="6"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -1910,818 +1882,818 @@
       <c r="DF1"/>
     </row>
     <row r="2" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="54"/>
-      <c r="BB2" s="54"/>
-      <c r="BC2" s="54"/>
-      <c r="BD2" s="54"/>
-      <c r="BE2" s="54"/>
-      <c r="BF2" s="54"/>
-      <c r="BG2" s="54"/>
-      <c r="BH2" s="54"/>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="54"/>
-      <c r="BK2" s="54"/>
-      <c r="BL2" s="54"/>
-      <c r="BM2" s="54"/>
-      <c r="BN2" s="54"/>
-      <c r="BO2" s="54"/>
-      <c r="BP2" s="54"/>
-      <c r="BQ2" s="54"/>
-      <c r="BR2" s="54"/>
-      <c r="BS2" s="54"/>
-      <c r="BT2" s="54"/>
-      <c r="BU2" s="54"/>
-      <c r="BV2" s="54"/>
-      <c r="BW2" s="54"/>
-      <c r="BX2" s="54"/>
-      <c r="BY2" s="54"/>
-      <c r="BZ2" s="54"/>
-      <c r="CA2" s="54"/>
-      <c r="CB2" s="54"/>
-      <c r="CC2" s="54"/>
-      <c r="CD2" s="54"/>
-      <c r="CE2" s="54"/>
-      <c r="CF2" s="54"/>
-      <c r="CG2" s="54"/>
-      <c r="CH2" s="54"/>
-      <c r="CI2" s="54"/>
-      <c r="CJ2" s="54"/>
-      <c r="CK2" s="54"/>
-      <c r="CL2" s="54"/>
-      <c r="CM2" s="54"/>
-      <c r="CN2" s="54"/>
-      <c r="CO2" s="54"/>
-      <c r="CP2" s="54"/>
-      <c r="CQ2" s="54"/>
-      <c r="CR2" s="54"/>
-      <c r="CS2" s="54"/>
-      <c r="CT2" s="54"/>
-      <c r="CU2" s="54"/>
-      <c r="CV2" s="54"/>
-      <c r="CW2" s="54"/>
-      <c r="CX2" s="54"/>
-      <c r="CY2" s="54"/>
-      <c r="CZ2" s="54"/>
-      <c r="DA2" s="54"/>
-      <c r="DB2" s="54"/>
-      <c r="DC2" s="54"/>
-      <c r="DD2" s="54"/>
-      <c r="DE2" s="54"/>
-      <c r="DF2" s="55"/>
+      <c r="B2" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="50"/>
+      <c r="BC2" s="50"/>
+      <c r="BD2" s="50"/>
+      <c r="BE2" s="50"/>
+      <c r="BF2" s="50"/>
+      <c r="BG2" s="50"/>
+      <c r="BH2" s="50"/>
+      <c r="BI2" s="50"/>
+      <c r="BJ2" s="50"/>
+      <c r="BK2" s="50"/>
+      <c r="BL2" s="50"/>
+      <c r="BM2" s="50"/>
+      <c r="BN2" s="50"/>
+      <c r="BO2" s="50"/>
+      <c r="BP2" s="50"/>
+      <c r="BQ2" s="50"/>
+      <c r="BR2" s="50"/>
+      <c r="BS2" s="50"/>
+      <c r="BT2" s="50"/>
+      <c r="BU2" s="50"/>
+      <c r="BV2" s="50"/>
+      <c r="BW2" s="50"/>
+      <c r="BX2" s="50"/>
+      <c r="BY2" s="50"/>
+      <c r="BZ2" s="50"/>
+      <c r="CA2" s="50"/>
+      <c r="CB2" s="50"/>
+      <c r="CC2" s="50"/>
+      <c r="CD2" s="50"/>
+      <c r="CE2" s="50"/>
+      <c r="CF2" s="50"/>
+      <c r="CG2" s="50"/>
+      <c r="CH2" s="50"/>
+      <c r="CI2" s="50"/>
+      <c r="CJ2" s="50"/>
+      <c r="CK2" s="50"/>
+      <c r="CL2" s="50"/>
+      <c r="CM2" s="50"/>
+      <c r="CN2" s="50"/>
+      <c r="CO2" s="50"/>
+      <c r="CP2" s="50"/>
+      <c r="CQ2" s="50"/>
+      <c r="CR2" s="50"/>
+      <c r="CS2" s="50"/>
+      <c r="CT2" s="50"/>
+      <c r="CU2" s="50"/>
+      <c r="CV2" s="50"/>
+      <c r="CW2" s="50"/>
+      <c r="CX2" s="50"/>
+      <c r="CY2" s="50"/>
+      <c r="CZ2" s="50"/>
+      <c r="DA2" s="50"/>
+      <c r="DB2" s="50"/>
+      <c r="DC2" s="50"/>
+      <c r="DD2" s="50"/>
+      <c r="DE2" s="50"/>
+      <c r="DF2" s="51"/>
     </row>
     <row r="3" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="95" t="s">
+      <c r="B3" s="96"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="94"/>
+      <c r="AO3" s="94"/>
+      <c r="AP3" s="94"/>
+      <c r="AQ3" s="94"/>
+      <c r="AR3" s="94"/>
+      <c r="AS3" s="94"/>
+      <c r="AT3" s="94"/>
+      <c r="AU3" s="94"/>
+      <c r="AV3" s="94"/>
+      <c r="AW3" s="94"/>
+      <c r="AX3" s="94"/>
+      <c r="AY3" s="94"/>
+      <c r="AZ3" s="94"/>
+      <c r="BA3" s="94"/>
+      <c r="BB3" s="94"/>
+      <c r="BC3" s="94"/>
+      <c r="BD3" s="94"/>
+      <c r="BE3" s="94"/>
+      <c r="BF3" s="94"/>
+      <c r="BG3" s="94"/>
+      <c r="BH3" s="94"/>
+      <c r="BI3" s="94"/>
+      <c r="BJ3" s="94"/>
+      <c r="BK3" s="94"/>
+      <c r="BL3" s="94"/>
+      <c r="BM3" s="94"/>
+      <c r="BN3" s="94"/>
+      <c r="BO3" s="94"/>
+      <c r="BP3" s="94"/>
+      <c r="BQ3" s="94"/>
+      <c r="BR3" s="94"/>
+      <c r="BS3" s="94"/>
+      <c r="BT3" s="94"/>
+      <c r="BU3" s="94"/>
+      <c r="BV3" s="94"/>
+      <c r="BW3" s="94"/>
+      <c r="BX3" s="94"/>
+      <c r="BY3" s="94"/>
+      <c r="BZ3" s="94"/>
+      <c r="CA3" s="94"/>
+      <c r="CB3" s="94"/>
+      <c r="CC3" s="94"/>
+      <c r="CD3" s="94"/>
+      <c r="CE3" s="94"/>
+      <c r="CF3" s="94"/>
+      <c r="CG3" s="94"/>
+      <c r="CH3" s="94"/>
+      <c r="CI3" s="94"/>
+      <c r="CJ3" s="94"/>
+      <c r="CK3" s="94"/>
+      <c r="CL3" s="94"/>
+      <c r="CM3" s="94"/>
+      <c r="CN3" s="94"/>
+      <c r="CO3" s="94"/>
+      <c r="CP3" s="94"/>
+      <c r="CQ3" s="94"/>
+      <c r="CR3" s="94"/>
+      <c r="CS3" s="94"/>
+      <c r="CT3" s="94"/>
+      <c r="CU3" s="94"/>
+      <c r="CV3" s="94"/>
+      <c r="CW3" s="94"/>
+      <c r="CX3" s="94"/>
+      <c r="CY3" s="94"/>
+      <c r="CZ3" s="94"/>
+      <c r="DA3" s="94"/>
+      <c r="DB3" s="94"/>
+      <c r="DC3" s="94"/>
+      <c r="DD3" s="94"/>
+      <c r="DE3" s="94"/>
+      <c r="DF3" s="95"/>
+    </row>
+    <row r="4" spans="2:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="99"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="56"/>
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="56"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="56"/>
+      <c r="BC4" s="56"/>
+      <c r="BD4" s="56"/>
+      <c r="BE4" s="56"/>
+      <c r="BF4" s="56"/>
+      <c r="BG4" s="56"/>
+      <c r="BH4" s="56"/>
+      <c r="BI4" s="56"/>
+      <c r="BJ4" s="56"/>
+      <c r="BK4" s="56"/>
+      <c r="BL4" s="56"/>
+      <c r="BM4" s="56"/>
+      <c r="BN4" s="56"/>
+      <c r="BO4" s="56"/>
+      <c r="BP4" s="56"/>
+      <c r="BQ4" s="56"/>
+      <c r="BR4" s="56"/>
+      <c r="BS4" s="56"/>
+      <c r="BT4" s="56"/>
+      <c r="BU4" s="56"/>
+      <c r="BV4" s="56"/>
+      <c r="BW4" s="56"/>
+      <c r="BX4" s="56"/>
+      <c r="BY4" s="56"/>
+      <c r="BZ4" s="56"/>
+      <c r="CA4" s="56"/>
+      <c r="CB4" s="56"/>
+      <c r="CC4" s="56"/>
+      <c r="CD4" s="56"/>
+      <c r="CE4" s="56"/>
+      <c r="CF4" s="56"/>
+      <c r="CG4" s="56"/>
+      <c r="CH4" s="56"/>
+      <c r="CI4" s="56"/>
+      <c r="CJ4" s="56"/>
+      <c r="CK4" s="56"/>
+      <c r="CL4" s="56"/>
+      <c r="CM4" s="56"/>
+      <c r="CN4" s="56"/>
+      <c r="CO4" s="56"/>
+      <c r="CP4" s="56"/>
+      <c r="CQ4" s="56"/>
+      <c r="CR4" s="56"/>
+      <c r="CS4" s="56"/>
+      <c r="CT4" s="56"/>
+      <c r="CU4" s="56"/>
+      <c r="CV4" s="56"/>
+      <c r="CW4" s="56"/>
+      <c r="CX4" s="56"/>
+      <c r="CY4" s="56"/>
+      <c r="CZ4" s="56"/>
+      <c r="DA4" s="56"/>
+      <c r="DB4" s="56"/>
+      <c r="DC4" s="56"/>
+      <c r="DD4" s="56"/>
+      <c r="DE4" s="56"/>
+      <c r="DF4" s="57"/>
+    </row>
+    <row r="5" spans="2:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="101"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="59"/>
+      <c r="AS5" s="59"/>
+      <c r="AT5" s="59"/>
+      <c r="AU5" s="59"/>
+      <c r="AV5" s="59"/>
+      <c r="AW5" s="59"/>
+      <c r="AX5" s="59"/>
+      <c r="AY5" s="59"/>
+      <c r="AZ5" s="59"/>
+      <c r="BA5" s="59"/>
+      <c r="BB5" s="59"/>
+      <c r="BC5" s="59"/>
+      <c r="BD5" s="59"/>
+      <c r="BE5" s="59"/>
+      <c r="BF5" s="59"/>
+      <c r="BG5" s="59"/>
+      <c r="BH5" s="59"/>
+      <c r="BI5" s="59"/>
+      <c r="BJ5" s="59"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59"/>
+      <c r="BM5" s="59"/>
+      <c r="BN5" s="59"/>
+      <c r="BO5" s="59"/>
+      <c r="BP5" s="59"/>
+      <c r="BQ5" s="59"/>
+      <c r="BR5" s="59"/>
+      <c r="BS5" s="59"/>
+      <c r="BT5" s="59"/>
+      <c r="BU5" s="59"/>
+      <c r="BV5" s="59"/>
+      <c r="BW5" s="59"/>
+      <c r="BX5" s="59"/>
+      <c r="BY5" s="59"/>
+      <c r="BZ5" s="59"/>
+      <c r="CA5" s="59"/>
+      <c r="CB5" s="59"/>
+      <c r="CC5" s="59"/>
+      <c r="CD5" s="59"/>
+      <c r="CE5" s="59"/>
+      <c r="CF5" s="59"/>
+      <c r="CG5" s="59"/>
+      <c r="CH5" s="59"/>
+      <c r="CI5" s="59"/>
+      <c r="CJ5" s="59"/>
+      <c r="CK5" s="59"/>
+      <c r="CL5" s="59"/>
+      <c r="CM5" s="59"/>
+      <c r="CN5" s="59"/>
+      <c r="CO5" s="59"/>
+      <c r="CP5" s="59"/>
+      <c r="CQ5" s="59"/>
+      <c r="CR5" s="59"/>
+      <c r="CS5" s="59"/>
+      <c r="CT5" s="59"/>
+      <c r="CU5" s="59"/>
+      <c r="CV5" s="59"/>
+      <c r="CW5" s="59"/>
+      <c r="CX5" s="59"/>
+      <c r="CY5" s="59"/>
+      <c r="CZ5" s="59"/>
+      <c r="DA5" s="59"/>
+      <c r="DB5" s="59"/>
+      <c r="DC5" s="59"/>
+      <c r="DD5" s="59"/>
+      <c r="DE5" s="59"/>
+      <c r="DF5" s="60"/>
+    </row>
+    <row r="6" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="104"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="96"/>
-      <c r="AJ3" s="96"/>
-      <c r="AK3" s="96"/>
-      <c r="AL3" s="96"/>
-      <c r="AM3" s="96"/>
-      <c r="AN3" s="96"/>
-      <c r="AO3" s="96"/>
-      <c r="AP3" s="96"/>
-      <c r="AQ3" s="96"/>
-      <c r="AR3" s="96"/>
-      <c r="AS3" s="96"/>
-      <c r="AT3" s="96"/>
-      <c r="AU3" s="96"/>
-      <c r="AV3" s="96"/>
-      <c r="AW3" s="96"/>
-      <c r="AX3" s="96"/>
-      <c r="AY3" s="96"/>
-      <c r="AZ3" s="96"/>
-      <c r="BA3" s="96"/>
-      <c r="BB3" s="96"/>
-      <c r="BC3" s="96"/>
-      <c r="BD3" s="96"/>
-      <c r="BE3" s="96"/>
-      <c r="BF3" s="96"/>
-      <c r="BG3" s="96"/>
-      <c r="BH3" s="96"/>
-      <c r="BI3" s="96"/>
-      <c r="BJ3" s="96"/>
-      <c r="BK3" s="96"/>
-      <c r="BL3" s="96"/>
-      <c r="BM3" s="96"/>
-      <c r="BN3" s="96"/>
-      <c r="BO3" s="96"/>
-      <c r="BP3" s="96"/>
-      <c r="BQ3" s="96"/>
-      <c r="BR3" s="96"/>
-      <c r="BS3" s="96"/>
-      <c r="BT3" s="96"/>
-      <c r="BU3" s="96"/>
-      <c r="BV3" s="96"/>
-      <c r="BW3" s="96"/>
-      <c r="BX3" s="96"/>
-      <c r="BY3" s="96"/>
-      <c r="BZ3" s="96"/>
-      <c r="CA3" s="96"/>
-      <c r="CB3" s="96"/>
-      <c r="CC3" s="96"/>
-      <c r="CD3" s="96"/>
-      <c r="CE3" s="96"/>
-      <c r="CF3" s="96"/>
-      <c r="CG3" s="96"/>
-      <c r="CH3" s="96"/>
-      <c r="CI3" s="96"/>
-      <c r="CJ3" s="96"/>
-      <c r="CK3" s="96"/>
-      <c r="CL3" s="96"/>
-      <c r="CM3" s="96"/>
-      <c r="CN3" s="96"/>
-      <c r="CO3" s="96"/>
-      <c r="CP3" s="96"/>
-      <c r="CQ3" s="96"/>
-      <c r="CR3" s="96"/>
-      <c r="CS3" s="96"/>
-      <c r="CT3" s="96"/>
-      <c r="CU3" s="96"/>
-      <c r="CV3" s="96"/>
-      <c r="CW3" s="96"/>
-      <c r="CX3" s="96"/>
-      <c r="CY3" s="96"/>
-      <c r="CZ3" s="96"/>
-      <c r="DA3" s="96"/>
-      <c r="DB3" s="96"/>
-      <c r="DC3" s="96"/>
-      <c r="DD3" s="96"/>
-      <c r="DE3" s="96"/>
-      <c r="DF3" s="97"/>
-    </row>
-    <row r="4" spans="2:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="53"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="61"/>
-      <c r="AK4" s="61"/>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="61"/>
-      <c r="AO4" s="61"/>
-      <c r="AP4" s="61"/>
-      <c r="AQ4" s="61"/>
-      <c r="AR4" s="61"/>
-      <c r="AS4" s="61"/>
-      <c r="AT4" s="61"/>
-      <c r="AU4" s="61"/>
-      <c r="AV4" s="61"/>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="61"/>
-      <c r="AY4" s="61"/>
-      <c r="AZ4" s="61"/>
-      <c r="BA4" s="61"/>
-      <c r="BB4" s="61"/>
-      <c r="BC4" s="61"/>
-      <c r="BD4" s="61"/>
-      <c r="BE4" s="61"/>
-      <c r="BF4" s="61"/>
-      <c r="BG4" s="61"/>
-      <c r="BH4" s="61"/>
-      <c r="BI4" s="61"/>
-      <c r="BJ4" s="61"/>
-      <c r="BK4" s="61"/>
-      <c r="BL4" s="61"/>
-      <c r="BM4" s="61"/>
-      <c r="BN4" s="61"/>
-      <c r="BO4" s="61"/>
-      <c r="BP4" s="61"/>
-      <c r="BQ4" s="61"/>
-      <c r="BR4" s="61"/>
-      <c r="BS4" s="61"/>
-      <c r="BT4" s="61"/>
-      <c r="BU4" s="61"/>
-      <c r="BV4" s="61"/>
-      <c r="BW4" s="61"/>
-      <c r="BX4" s="61"/>
-      <c r="BY4" s="61"/>
-      <c r="BZ4" s="61"/>
-      <c r="CA4" s="61"/>
-      <c r="CB4" s="61"/>
-      <c r="CC4" s="61"/>
-      <c r="CD4" s="61"/>
-      <c r="CE4" s="61"/>
-      <c r="CF4" s="61"/>
-      <c r="CG4" s="61"/>
-      <c r="CH4" s="61"/>
-      <c r="CI4" s="61"/>
-      <c r="CJ4" s="61"/>
-      <c r="CK4" s="61"/>
-      <c r="CL4" s="61"/>
-      <c r="CM4" s="61"/>
-      <c r="CN4" s="61"/>
-      <c r="CO4" s="61"/>
-      <c r="CP4" s="61"/>
-      <c r="CQ4" s="61"/>
-      <c r="CR4" s="61"/>
-      <c r="CS4" s="61"/>
-      <c r="CT4" s="61"/>
-      <c r="CU4" s="61"/>
-      <c r="CV4" s="61"/>
-      <c r="CW4" s="61"/>
-      <c r="CX4" s="61"/>
-      <c r="CY4" s="61"/>
-      <c r="CZ4" s="61"/>
-      <c r="DA4" s="61"/>
-      <c r="DB4" s="61"/>
-      <c r="DC4" s="61"/>
-      <c r="DD4" s="61"/>
-      <c r="DE4" s="61"/>
-      <c r="DF4" s="62"/>
-    </row>
-    <row r="5" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="64"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="64"/>
-      <c r="AH5" s="64"/>
-      <c r="AI5" s="64"/>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="64"/>
-      <c r="AL5" s="64"/>
-      <c r="AM5" s="64"/>
-      <c r="AN5" s="64"/>
-      <c r="AO5" s="64"/>
-      <c r="AP5" s="64"/>
-      <c r="AQ5" s="64"/>
-      <c r="AR5" s="64"/>
-      <c r="AS5" s="64"/>
-      <c r="AT5" s="64"/>
-      <c r="AU5" s="64"/>
-      <c r="AV5" s="64"/>
-      <c r="AW5" s="64"/>
-      <c r="AX5" s="64"/>
-      <c r="AY5" s="64"/>
-      <c r="AZ5" s="64"/>
-      <c r="BA5" s="64"/>
-      <c r="BB5" s="64"/>
-      <c r="BC5" s="64"/>
-      <c r="BD5" s="64"/>
-      <c r="BE5" s="64"/>
-      <c r="BF5" s="64"/>
-      <c r="BG5" s="64"/>
-      <c r="BH5" s="64"/>
-      <c r="BI5" s="64"/>
-      <c r="BJ5" s="64"/>
-      <c r="BK5" s="64"/>
-      <c r="BL5" s="64"/>
-      <c r="BM5" s="64"/>
-      <c r="BN5" s="64"/>
-      <c r="BO5" s="64"/>
-      <c r="BP5" s="64"/>
-      <c r="BQ5" s="64"/>
-      <c r="BR5" s="64"/>
-      <c r="BS5" s="64"/>
-      <c r="BT5" s="64"/>
-      <c r="BU5" s="64"/>
-      <c r="BV5" s="64"/>
-      <c r="BW5" s="64"/>
-      <c r="BX5" s="64"/>
-      <c r="BY5" s="64"/>
-      <c r="BZ5" s="64"/>
-      <c r="CA5" s="64"/>
-      <c r="CB5" s="64"/>
-      <c r="CC5" s="64"/>
-      <c r="CD5" s="64"/>
-      <c r="CE5" s="64"/>
-      <c r="CF5" s="64"/>
-      <c r="CG5" s="64"/>
-      <c r="CH5" s="64"/>
-      <c r="CI5" s="64"/>
-      <c r="CJ5" s="64"/>
-      <c r="CK5" s="64"/>
-      <c r="CL5" s="64"/>
-      <c r="CM5" s="64"/>
-      <c r="CN5" s="64"/>
-      <c r="CO5" s="64"/>
-      <c r="CP5" s="64"/>
-      <c r="CQ5" s="64"/>
-      <c r="CR5" s="64"/>
-      <c r="CS5" s="64"/>
-      <c r="CT5" s="64"/>
-      <c r="CU5" s="64"/>
-      <c r="CV5" s="64"/>
-      <c r="CW5" s="64"/>
-      <c r="CX5" s="64"/>
-      <c r="CY5" s="64"/>
-      <c r="CZ5" s="64"/>
-      <c r="DA5" s="64"/>
-      <c r="DB5" s="64"/>
-      <c r="DC5" s="64"/>
-      <c r="DD5" s="64"/>
-      <c r="DE5" s="64"/>
-      <c r="DF5" s="65"/>
-    </row>
-    <row r="6" spans="2:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="101"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="63"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="64"/>
-      <c r="AH6" s="64"/>
-      <c r="AI6" s="64"/>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="64"/>
-      <c r="AL6" s="64"/>
-      <c r="AM6" s="64"/>
-      <c r="AN6" s="64"/>
-      <c r="AO6" s="64"/>
-      <c r="AP6" s="64"/>
-      <c r="AQ6" s="64"/>
-      <c r="AR6" s="64"/>
-      <c r="AS6" s="64"/>
-      <c r="AT6" s="64"/>
-      <c r="AU6" s="64"/>
-      <c r="AV6" s="64"/>
-      <c r="AW6" s="64"/>
-      <c r="AX6" s="64"/>
-      <c r="AY6" s="64"/>
-      <c r="AZ6" s="64"/>
-      <c r="BA6" s="64"/>
-      <c r="BB6" s="64"/>
-      <c r="BC6" s="64"/>
-      <c r="BD6" s="64"/>
-      <c r="BE6" s="64"/>
-      <c r="BF6" s="64"/>
-      <c r="BG6" s="64"/>
-      <c r="BH6" s="64"/>
-      <c r="BI6" s="64"/>
-      <c r="BJ6" s="64"/>
-      <c r="BK6" s="64"/>
-      <c r="BL6" s="64"/>
-      <c r="BM6" s="64"/>
-      <c r="BN6" s="64"/>
-      <c r="BO6" s="64"/>
-      <c r="BP6" s="64"/>
-      <c r="BQ6" s="64"/>
-      <c r="BR6" s="64"/>
-      <c r="BS6" s="64"/>
-      <c r="BT6" s="64"/>
-      <c r="BU6" s="64"/>
-      <c r="BV6" s="64"/>
-      <c r="BW6" s="64"/>
-      <c r="BX6" s="64"/>
-      <c r="BY6" s="64"/>
-      <c r="BZ6" s="64"/>
-      <c r="CA6" s="64"/>
-      <c r="CB6" s="64"/>
-      <c r="CC6" s="64"/>
-      <c r="CD6" s="64"/>
-      <c r="CE6" s="64"/>
-      <c r="CF6" s="64"/>
-      <c r="CG6" s="64"/>
-      <c r="CH6" s="64"/>
-      <c r="CI6" s="64"/>
-      <c r="CJ6" s="64"/>
-      <c r="CK6" s="64"/>
-      <c r="CL6" s="64"/>
-      <c r="CM6" s="64"/>
-      <c r="CN6" s="64"/>
-      <c r="CO6" s="64"/>
-      <c r="CP6" s="64"/>
-      <c r="CQ6" s="64"/>
-      <c r="CR6" s="64"/>
-      <c r="CS6" s="64"/>
-      <c r="CT6" s="64"/>
-      <c r="CU6" s="64"/>
-      <c r="CV6" s="64"/>
-      <c r="CW6" s="64"/>
-      <c r="CX6" s="64"/>
-      <c r="CY6" s="64"/>
-      <c r="CZ6" s="64"/>
-      <c r="DA6" s="64"/>
-      <c r="DB6" s="64"/>
-      <c r="DC6" s="64"/>
-      <c r="DD6" s="64"/>
-      <c r="DE6" s="64"/>
-      <c r="DF6" s="65"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="59"/>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="59"/>
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="59"/>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="59"/>
+      <c r="AS6" s="59"/>
+      <c r="AT6" s="59"/>
+      <c r="AU6" s="59"/>
+      <c r="AV6" s="59"/>
+      <c r="AW6" s="59"/>
+      <c r="AX6" s="59"/>
+      <c r="AY6" s="59"/>
+      <c r="AZ6" s="59"/>
+      <c r="BA6" s="59"/>
+      <c r="BB6" s="59"/>
+      <c r="BC6" s="59"/>
+      <c r="BD6" s="59"/>
+      <c r="BE6" s="59"/>
+      <c r="BF6" s="59"/>
+      <c r="BG6" s="59"/>
+      <c r="BH6" s="59"/>
+      <c r="BI6" s="59"/>
+      <c r="BJ6" s="59"/>
+      <c r="BK6" s="59"/>
+      <c r="BL6" s="59"/>
+      <c r="BM6" s="59"/>
+      <c r="BN6" s="59"/>
+      <c r="BO6" s="59"/>
+      <c r="BP6" s="59"/>
+      <c r="BQ6" s="59"/>
+      <c r="BR6" s="59"/>
+      <c r="BS6" s="59"/>
+      <c r="BT6" s="59"/>
+      <c r="BU6" s="59"/>
+      <c r="BV6" s="59"/>
+      <c r="BW6" s="59"/>
+      <c r="BX6" s="59"/>
+      <c r="BY6" s="59"/>
+      <c r="BZ6" s="59"/>
+      <c r="CA6" s="59"/>
+      <c r="CB6" s="59"/>
+      <c r="CC6" s="59"/>
+      <c r="CD6" s="59"/>
+      <c r="CE6" s="59"/>
+      <c r="CF6" s="59"/>
+      <c r="CG6" s="59"/>
+      <c r="CH6" s="59"/>
+      <c r="CI6" s="59"/>
+      <c r="CJ6" s="59"/>
+      <c r="CK6" s="59"/>
+      <c r="CL6" s="59"/>
+      <c r="CM6" s="59"/>
+      <c r="CN6" s="59"/>
+      <c r="CO6" s="59"/>
+      <c r="CP6" s="59"/>
+      <c r="CQ6" s="59"/>
+      <c r="CR6" s="59"/>
+      <c r="CS6" s="59"/>
+      <c r="CT6" s="59"/>
+      <c r="CU6" s="59"/>
+      <c r="CV6" s="59"/>
+      <c r="CW6" s="59"/>
+      <c r="CX6" s="59"/>
+      <c r="CY6" s="59"/>
+      <c r="CZ6" s="59"/>
+      <c r="DA6" s="59"/>
+      <c r="DB6" s="59"/>
+      <c r="DC6" s="59"/>
+      <c r="DD6" s="59"/>
+      <c r="DE6" s="59"/>
+      <c r="DF6" s="60"/>
     </row>
     <row r="7" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="45" t="s">
+      <c r="G7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="47" t="s">
+      <c r="H7" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="I7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="J7" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="67"/>
-      <c r="AG7" s="67"/>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="67"/>
-      <c r="AK7" s="67"/>
-      <c r="AL7" s="67"/>
-      <c r="AM7" s="67"/>
-      <c r="AN7" s="67"/>
-      <c r="AO7" s="67"/>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67"/>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="67"/>
-      <c r="AY7" s="67"/>
-      <c r="AZ7" s="67"/>
-      <c r="BA7" s="67"/>
-      <c r="BB7" s="67"/>
-      <c r="BC7" s="67"/>
-      <c r="BD7" s="67"/>
-      <c r="BE7" s="67"/>
-      <c r="BF7" s="67"/>
-      <c r="BG7" s="67"/>
-      <c r="BH7" s="67"/>
-      <c r="BI7" s="67"/>
-      <c r="BJ7" s="67"/>
-      <c r="BK7" s="67"/>
-      <c r="BL7" s="67"/>
-      <c r="BM7" s="67"/>
-      <c r="BN7" s="67"/>
-      <c r="BO7" s="67"/>
-      <c r="BP7" s="67"/>
-      <c r="BQ7" s="67"/>
-      <c r="BR7" s="67"/>
-      <c r="BS7" s="67"/>
-      <c r="BT7" s="67"/>
-      <c r="BU7" s="67"/>
-      <c r="BV7" s="67"/>
-      <c r="BW7" s="67"/>
-      <c r="BX7" s="67"/>
-      <c r="BY7" s="67"/>
-      <c r="BZ7" s="67"/>
-      <c r="CA7" s="67"/>
-      <c r="CB7" s="67"/>
-      <c r="CC7" s="67"/>
-      <c r="CD7" s="67"/>
-      <c r="CE7" s="67"/>
-      <c r="CF7" s="67"/>
-      <c r="CG7" s="67"/>
-      <c r="CH7" s="67"/>
-      <c r="CI7" s="67"/>
-      <c r="CJ7" s="67"/>
-      <c r="CK7" s="67"/>
-      <c r="CL7" s="67"/>
-      <c r="CM7" s="67"/>
-      <c r="CN7" s="67"/>
-      <c r="CO7" s="67"/>
-      <c r="CP7" s="67"/>
-      <c r="CQ7" s="67"/>
-      <c r="CR7" s="67"/>
-      <c r="CS7" s="67"/>
-      <c r="CT7" s="67"/>
-      <c r="CU7" s="67"/>
-      <c r="CV7" s="67"/>
-      <c r="CW7" s="67"/>
-      <c r="CX7" s="67"/>
-      <c r="CY7" s="67"/>
-      <c r="CZ7" s="67"/>
-      <c r="DA7" s="67"/>
-      <c r="DB7" s="67"/>
-      <c r="DC7" s="67"/>
-      <c r="DD7" s="67"/>
-      <c r="DE7" s="67"/>
-      <c r="DF7" s="68"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="62"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="62"/>
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="62"/>
+      <c r="AL7" s="62"/>
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="62"/>
+      <c r="AP7" s="62"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="62"/>
+      <c r="AT7" s="62"/>
+      <c r="AU7" s="62"/>
+      <c r="AV7" s="62"/>
+      <c r="AW7" s="62"/>
+      <c r="AX7" s="62"/>
+      <c r="AY7" s="62"/>
+      <c r="AZ7" s="62"/>
+      <c r="BA7" s="62"/>
+      <c r="BB7" s="62"/>
+      <c r="BC7" s="62"/>
+      <c r="BD7" s="62"/>
+      <c r="BE7" s="62"/>
+      <c r="BF7" s="62"/>
+      <c r="BG7" s="62"/>
+      <c r="BH7" s="62"/>
+      <c r="BI7" s="62"/>
+      <c r="BJ7" s="62"/>
+      <c r="BK7" s="62"/>
+      <c r="BL7" s="62"/>
+      <c r="BM7" s="62"/>
+      <c r="BN7" s="62"/>
+      <c r="BO7" s="62"/>
+      <c r="BP7" s="62"/>
+      <c r="BQ7" s="62"/>
+      <c r="BR7" s="62"/>
+      <c r="BS7" s="62"/>
+      <c r="BT7" s="62"/>
+      <c r="BU7" s="62"/>
+      <c r="BV7" s="62"/>
+      <c r="BW7" s="62"/>
+      <c r="BX7" s="62"/>
+      <c r="BY7" s="62"/>
+      <c r="BZ7" s="62"/>
+      <c r="CA7" s="62"/>
+      <c r="CB7" s="62"/>
+      <c r="CC7" s="62"/>
+      <c r="CD7" s="62"/>
+      <c r="CE7" s="62"/>
+      <c r="CF7" s="62"/>
+      <c r="CG7" s="62"/>
+      <c r="CH7" s="62"/>
+      <c r="CI7" s="62"/>
+      <c r="CJ7" s="62"/>
+      <c r="CK7" s="62"/>
+      <c r="CL7" s="62"/>
+      <c r="CM7" s="62"/>
+      <c r="CN7" s="62"/>
+      <c r="CO7" s="62"/>
+      <c r="CP7" s="62"/>
+      <c r="CQ7" s="62"/>
+      <c r="CR7" s="62"/>
+      <c r="CS7" s="62"/>
+      <c r="CT7" s="62"/>
+      <c r="CU7" s="62"/>
+      <c r="CV7" s="62"/>
+      <c r="CW7" s="62"/>
+      <c r="CX7" s="62"/>
+      <c r="CY7" s="62"/>
+      <c r="CZ7" s="62"/>
+      <c r="DA7" s="62"/>
+      <c r="DB7" s="62"/>
+      <c r="DC7" s="62"/>
+      <c r="DD7" s="62"/>
+      <c r="DE7" s="62"/>
+      <c r="DF7" s="63"/>
     </row>
     <row r="8" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="14"/>
       <c r="F8" s="16"/>
       <c r="G8" s="38"/>
       <c r="H8" s="40"/>
       <c r="I8" s="42"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="70"/>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="70"/>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="70"/>
-      <c r="AK8" s="70"/>
-      <c r="AL8" s="70"/>
-      <c r="AM8" s="70"/>
-      <c r="AN8" s="70"/>
-      <c r="AO8" s="70"/>
-      <c r="AP8" s="70"/>
-      <c r="AQ8" s="70"/>
-      <c r="AR8" s="70"/>
-      <c r="AS8" s="70"/>
-      <c r="AT8" s="70"/>
-      <c r="AU8" s="70"/>
-      <c r="AV8" s="70"/>
-      <c r="AW8" s="70"/>
-      <c r="AX8" s="70"/>
-      <c r="AY8" s="70"/>
-      <c r="AZ8" s="70"/>
-      <c r="BA8" s="70"/>
-      <c r="BB8" s="70"/>
-      <c r="BC8" s="70"/>
-      <c r="BD8" s="70"/>
-      <c r="BE8" s="70"/>
-      <c r="BF8" s="70"/>
-      <c r="BG8" s="70"/>
-      <c r="BH8" s="70"/>
-      <c r="BI8" s="70"/>
-      <c r="BJ8" s="70"/>
-      <c r="BK8" s="70"/>
-      <c r="BL8" s="70"/>
-      <c r="BM8" s="70"/>
-      <c r="BN8" s="70"/>
-      <c r="BO8" s="70"/>
-      <c r="BP8" s="70"/>
-      <c r="BQ8" s="70"/>
-      <c r="BR8" s="70"/>
-      <c r="BS8" s="70"/>
-      <c r="BT8" s="70"/>
-      <c r="BU8" s="70"/>
-      <c r="BV8" s="70"/>
-      <c r="BW8" s="70"/>
-      <c r="BX8" s="70"/>
-      <c r="BY8" s="70"/>
-      <c r="BZ8" s="70"/>
-      <c r="CA8" s="70"/>
-      <c r="CB8" s="70"/>
-      <c r="CC8" s="70"/>
-      <c r="CD8" s="70"/>
-      <c r="CE8" s="70"/>
-      <c r="CF8" s="70"/>
-      <c r="CG8" s="70"/>
-      <c r="CH8" s="70"/>
-      <c r="CI8" s="70"/>
-      <c r="CJ8" s="70"/>
-      <c r="CK8" s="70"/>
-      <c r="CL8" s="70"/>
-      <c r="CM8" s="70"/>
-      <c r="CN8" s="70"/>
-      <c r="CO8" s="70"/>
-      <c r="CP8" s="70"/>
-      <c r="CQ8" s="70"/>
-      <c r="CR8" s="70"/>
-      <c r="CS8" s="70"/>
-      <c r="CT8" s="70"/>
-      <c r="CU8" s="70"/>
-      <c r="CV8" s="70"/>
-      <c r="CW8" s="70"/>
-      <c r="CX8" s="70"/>
-      <c r="CY8" s="70"/>
-      <c r="CZ8" s="70"/>
-      <c r="DA8" s="70"/>
-      <c r="DB8" s="70"/>
-      <c r="DC8" s="70"/>
-      <c r="DD8" s="70"/>
-      <c r="DE8" s="70"/>
-      <c r="DF8" s="71"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="65"/>
+      <c r="AE8" s="65"/>
+      <c r="AF8" s="65"/>
+      <c r="AG8" s="65"/>
+      <c r="AH8" s="65"/>
+      <c r="AI8" s="65"/>
+      <c r="AJ8" s="65"/>
+      <c r="AK8" s="65"/>
+      <c r="AL8" s="65"/>
+      <c r="AM8" s="65"/>
+      <c r="AN8" s="65"/>
+      <c r="AO8" s="65"/>
+      <c r="AP8" s="65"/>
+      <c r="AQ8" s="65"/>
+      <c r="AR8" s="65"/>
+      <c r="AS8" s="65"/>
+      <c r="AT8" s="65"/>
+      <c r="AU8" s="65"/>
+      <c r="AV8" s="65"/>
+      <c r="AW8" s="65"/>
+      <c r="AX8" s="65"/>
+      <c r="AY8" s="65"/>
+      <c r="AZ8" s="65"/>
+      <c r="BA8" s="65"/>
+      <c r="BB8" s="65"/>
+      <c r="BC8" s="65"/>
+      <c r="BD8" s="65"/>
+      <c r="BE8" s="65"/>
+      <c r="BF8" s="65"/>
+      <c r="BG8" s="65"/>
+      <c r="BH8" s="65"/>
+      <c r="BI8" s="65"/>
+      <c r="BJ8" s="65"/>
+      <c r="BK8" s="65"/>
+      <c r="BL8" s="65"/>
+      <c r="BM8" s="65"/>
+      <c r="BN8" s="65"/>
+      <c r="BO8" s="65"/>
+      <c r="BP8" s="65"/>
+      <c r="BQ8" s="65"/>
+      <c r="BR8" s="65"/>
+      <c r="BS8" s="65"/>
+      <c r="BT8" s="65"/>
+      <c r="BU8" s="65"/>
+      <c r="BV8" s="65"/>
+      <c r="BW8" s="65"/>
+      <c r="BX8" s="65"/>
+      <c r="BY8" s="65"/>
+      <c r="BZ8" s="65"/>
+      <c r="CA8" s="65"/>
+      <c r="CB8" s="65"/>
+      <c r="CC8" s="65"/>
+      <c r="CD8" s="65"/>
+      <c r="CE8" s="65"/>
+      <c r="CF8" s="65"/>
+      <c r="CG8" s="65"/>
+      <c r="CH8" s="65"/>
+      <c r="CI8" s="65"/>
+      <c r="CJ8" s="65"/>
+      <c r="CK8" s="65"/>
+      <c r="CL8" s="65"/>
+      <c r="CM8" s="65"/>
+      <c r="CN8" s="65"/>
+      <c r="CO8" s="65"/>
+      <c r="CP8" s="65"/>
+      <c r="CQ8" s="65"/>
+      <c r="CR8" s="65"/>
+      <c r="CS8" s="65"/>
+      <c r="CT8" s="65"/>
+      <c r="CU8" s="65"/>
+      <c r="CV8" s="65"/>
+      <c r="CW8" s="65"/>
+      <c r="CX8" s="65"/>
+      <c r="CY8" s="65"/>
+      <c r="CZ8" s="65"/>
+      <c r="DA8" s="65"/>
+      <c r="DB8" s="65"/>
+      <c r="DC8" s="65"/>
+      <c r="DD8" s="65"/>
+      <c r="DE8" s="65"/>
+      <c r="DF8" s="66"/>
     </row>
     <row r="9" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="12"/>
       <c r="F9" s="10"/>
       <c r="G9" s="39"/>
@@ -2730,8 +2702,8 @@
     </row>
     <row r="10" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="12"/>
       <c r="F10" s="10"/>
       <c r="G10" s="39"/>
@@ -2740,8 +2712,8 @@
     </row>
     <row r="11" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
       <c r="E11" s="12"/>
       <c r="F11" s="10"/>
       <c r="G11" s="39"/>
@@ -2750,8 +2722,8 @@
     </row>
     <row r="12" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
       <c r="E12" s="12"/>
       <c r="F12" s="10"/>
       <c r="G12" s="39"/>
@@ -2760,8 +2732,8 @@
     </row>
     <row r="13" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
       <c r="E13" s="12"/>
       <c r="F13" s="10"/>
       <c r="G13" s="39"/>
@@ -2770,8 +2742,8 @@
     </row>
     <row r="14" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
       <c r="E14" s="12"/>
       <c r="F14" s="10"/>
       <c r="G14" s="39"/>
@@ -2780,8 +2752,8 @@
     </row>
     <row r="15" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
       <c r="E15" s="12"/>
       <c r="F15" s="10"/>
       <c r="G15" s="39"/>
@@ -2790,8 +2762,8 @@
     </row>
     <row r="16" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="12"/>
       <c r="F16" s="10"/>
       <c r="G16" s="39"/>
@@ -2800,8 +2772,8 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="12"/>
       <c r="F17" s="10"/>
       <c r="G17" s="39"/>
@@ -2810,8 +2782,8 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="12"/>
       <c r="F18" s="10"/>
       <c r="G18" s="39"/>
@@ -2820,8 +2792,8 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="12"/>
       <c r="F19" s="10"/>
       <c r="G19" s="39"/>
@@ -2830,8 +2802,8 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
       <c r="E20" s="12"/>
       <c r="F20" s="10"/>
       <c r="G20" s="39"/>
@@ -2840,8 +2812,8 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="12"/>
       <c r="F21" s="10"/>
       <c r="G21" s="39"/>
@@ -2850,8 +2822,8 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="12"/>
       <c r="F22" s="10"/>
       <c r="G22" s="39"/>
@@ -2860,8 +2832,8 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="12"/>
       <c r="F23" s="10"/>
       <c r="G23" s="39"/>
@@ -2870,8 +2842,8 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="12"/>
       <c r="F24" s="10"/>
       <c r="G24" s="39"/>
@@ -2880,8 +2852,8 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
       <c r="E25" s="12"/>
       <c r="F25" s="10"/>
       <c r="G25" s="39"/>
@@ -2890,8 +2862,8 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
       <c r="E26" s="12"/>
       <c r="F26" s="10"/>
       <c r="G26" s="39"/>
@@ -2900,8 +2872,8 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
       <c r="E27" s="12"/>
       <c r="F27" s="10"/>
       <c r="G27" s="39"/>
@@ -2910,8 +2882,8 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
       <c r="E28" s="12"/>
       <c r="F28" s="10"/>
       <c r="G28" s="39"/>
@@ -2920,8 +2892,8 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
       <c r="E29" s="12"/>
       <c r="F29" s="10"/>
       <c r="G29" s="39"/>
@@ -2930,8 +2902,8 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
       <c r="E30" s="12"/>
       <c r="F30" s="10"/>
       <c r="G30" s="39"/>
@@ -2940,8 +2912,8 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
       <c r="E31" s="12"/>
       <c r="F31" s="10"/>
       <c r="G31" s="39"/>
@@ -2950,8 +2922,8 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
       <c r="E32" s="12"/>
       <c r="F32" s="10"/>
       <c r="G32" s="39"/>
@@ -2960,8 +2932,8 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
       <c r="E33" s="12"/>
       <c r="F33" s="10"/>
       <c r="G33" s="39"/>
@@ -2970,8 +2942,8 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
       <c r="E34" s="12"/>
       <c r="F34" s="10"/>
       <c r="G34" s="39"/>
@@ -2980,8 +2952,8 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
       <c r="E35" s="12"/>
       <c r="F35" s="10"/>
       <c r="G35" s="39"/>
@@ -2990,8 +2962,8 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
       <c r="E36" s="12"/>
       <c r="F36" s="10"/>
       <c r="G36" s="39"/>
@@ -3000,8 +2972,8 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
       <c r="E37" s="12"/>
       <c r="F37" s="10"/>
       <c r="G37" s="39"/>
@@ -3010,8 +2982,8 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
       <c r="E38" s="12"/>
       <c r="F38" s="10"/>
       <c r="G38" s="39"/>
@@ -3020,8 +2992,8 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
       <c r="E39" s="12"/>
       <c r="F39" s="10"/>
       <c r="G39" s="39"/>
@@ -3030,8 +3002,8 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
       <c r="E40" s="12"/>
       <c r="F40" s="10"/>
       <c r="G40" s="39"/>
@@ -3040,8 +3012,8 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
       <c r="E41" s="12"/>
       <c r="F41" s="10"/>
       <c r="G41" s="39"/>
@@ -3050,8 +3022,8 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
       <c r="E42" s="12"/>
       <c r="F42" s="10"/>
       <c r="G42" s="39"/>
@@ -3060,8 +3032,8 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
       <c r="E43" s="12"/>
       <c r="F43" s="10"/>
       <c r="G43" s="39"/>
@@ -3070,8 +3042,8 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
       <c r="E44" s="12"/>
       <c r="F44" s="10"/>
       <c r="G44" s="39"/>
@@ -3080,8 +3052,8 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
       <c r="E45" s="12"/>
       <c r="F45" s="10"/>
       <c r="G45" s="39"/>
@@ -3090,8 +3062,8 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
       <c r="E46" s="12"/>
       <c r="F46" s="10"/>
       <c r="G46" s="39"/>
@@ -3100,8 +3072,8 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
       <c r="E47" s="12"/>
       <c r="F47" s="10"/>
       <c r="G47" s="39"/>
@@ -3110,8 +3082,8 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
       <c r="E48" s="12"/>
       <c r="F48" s="10"/>
       <c r="G48" s="39"/>
@@ -3120,8 +3092,8 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
       <c r="E49" s="12"/>
       <c r="F49" s="10"/>
       <c r="G49" s="39"/>
@@ -3130,8 +3102,8 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
       <c r="E50" s="12"/>
       <c r="F50" s="10"/>
       <c r="G50" s="39"/>
@@ -3140,8 +3112,8 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
       <c r="E51" s="12"/>
       <c r="F51" s="10"/>
       <c r="G51" s="39"/>
@@ -3150,8 +3122,8 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
       <c r="E52" s="12"/>
       <c r="F52" s="10"/>
       <c r="G52" s="39"/>
@@ -3160,8 +3132,8 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
       <c r="E53" s="12"/>
       <c r="F53" s="10"/>
       <c r="G53" s="39"/>
@@ -3170,8 +3142,8 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
       <c r="E54" s="12"/>
       <c r="F54" s="10"/>
       <c r="G54" s="39"/>
@@ -3180,8 +3152,8 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
       <c r="E55" s="12"/>
       <c r="F55" s="10"/>
       <c r="G55" s="39"/>
@@ -3190,8 +3162,8 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="82"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
       <c r="E56" s="12"/>
       <c r="F56" s="10"/>
       <c r="G56" s="39"/>
@@ -3200,8 +3172,8 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
       <c r="E57" s="12"/>
       <c r="F57" s="10"/>
       <c r="G57" s="39"/>
@@ -3209,12 +3181,12 @@
       <c r="I57" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IhkS4ZZGrC0apCJlXugchWySxz5yhMBN2Co7XzWa9fui5GUbL0KJ3JyWZ/kH/6y3Zd2Pz/UGEC76hXyqb69vrA==" saltValue="2IsUyBOe93s6rv3V5cnssw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="958jY7mTjyhUaHt08FbCPGUI9Lpkwl4pcYpTeXJZ91lQuVv4l0I/HZRw+ZhHGLhn4hvEkj2iEPxwU4CdQQas/g==" saltValue="GIuHcD0l32c2KvCo6ZbPCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="K3:DF3"/>
     <mergeCell ref="B2:I3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B4:F6"/>
+    <mergeCell ref="G4:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I1048576">
     <cfRule type="expression" dxfId="1" priority="3">

--- a/form_reporting_templates/Form-3AA.xlsx
+++ b/form_reporting_templates/Form-3AA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11DEFFC-56BB-43DB-B68D-D3C419DDFF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD315D6-DE42-4ED6-90E6-5582C314BF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dV4x4UN/0VvyFBtyDoIunEcfcYZ4v5uYvk1jvD8vzzLvThv6/Y3drfR5cofF0NFHWy380GJVRhDwCQZMDGpoHQ==" workbookSaltValue="zVm6vMVUmkQ3Bwhy95qLKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -155,9 +155,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000000000"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -740,10 +740,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -1022,26 +1018,30 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1089,9 +1089,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1129,7 +1129,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1235,7 +1235,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1377,7 +1377,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1403,325 +1403,325 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="33" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="21"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="21"/>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="20"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
-      <c r="C8" s="86" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="86" t="s">
+      <c r="D8" s="85"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="86"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="31" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="30" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="20"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="20"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="20"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="20"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
-      <c r="C16" s="28" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="20"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="20"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="29" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="20"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
-      <c r="C20" s="29" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="20"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="21"/>
-      <c r="C23" s="28" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="20"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="21"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
-      <c r="C25" s="29" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="20"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="21"/>
-      <c r="C28" s="28" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="20"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="21"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="21"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="48NegoWQFUa2Gwl7wO/f4V99zs0Uu6IFoRo5sKGkhDSLyvoX+N1luPbgom8BN1ABpF4rPr1qpEYZhZ3+1fchbQ==" saltValue="pkiOwF4h2TRzLirGjueSjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u+hurOEPd55proXnTc6D2T6cvf63yQnYelqYz21c6NV6gCyTF4stSG33sC1PjU2E96T90TInId3yvrS+HXdF2Q==" saltValue="OU3i3guuf7iTbragYs/0dg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -1757,28 +1757,28 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.85546875" style="77" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="45" customWidth="1"/>
-    <col min="8" max="8" width="10" style="47" customWidth="1"/>
-    <col min="9" max="9" width="10" style="48" customWidth="1"/>
-    <col min="10" max="10" width="12" style="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="67"/>
-    <col min="12" max="109" width="9.140625" style="68"/>
-    <col min="110" max="110" width="9.140625" style="69"/>
+    <col min="2" max="2" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" style="76" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="10" style="46" customWidth="1"/>
+    <col min="9" max="9" width="10" style="47" customWidth="1"/>
+    <col min="10" max="10" width="12" style="53" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="66"/>
+    <col min="12" max="109" width="9.140625" style="67"/>
+    <col min="110" max="110" width="9.140625" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:110" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -1882,1303 +1882,1303 @@
       <c r="DF1"/>
     </row>
     <row r="2" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="50"/>
-      <c r="BF2" s="50"/>
-      <c r="BG2" s="50"/>
-      <c r="BH2" s="50"/>
-      <c r="BI2" s="50"/>
-      <c r="BJ2" s="50"/>
-      <c r="BK2" s="50"/>
-      <c r="BL2" s="50"/>
-      <c r="BM2" s="50"/>
-      <c r="BN2" s="50"/>
-      <c r="BO2" s="50"/>
-      <c r="BP2" s="50"/>
-      <c r="BQ2" s="50"/>
-      <c r="BR2" s="50"/>
-      <c r="BS2" s="50"/>
-      <c r="BT2" s="50"/>
-      <c r="BU2" s="50"/>
-      <c r="BV2" s="50"/>
-      <c r="BW2" s="50"/>
-      <c r="BX2" s="50"/>
-      <c r="BY2" s="50"/>
-      <c r="BZ2" s="50"/>
-      <c r="CA2" s="50"/>
-      <c r="CB2" s="50"/>
-      <c r="CC2" s="50"/>
-      <c r="CD2" s="50"/>
-      <c r="CE2" s="50"/>
-      <c r="CF2" s="50"/>
-      <c r="CG2" s="50"/>
-      <c r="CH2" s="50"/>
-      <c r="CI2" s="50"/>
-      <c r="CJ2" s="50"/>
-      <c r="CK2" s="50"/>
-      <c r="CL2" s="50"/>
-      <c r="CM2" s="50"/>
-      <c r="CN2" s="50"/>
-      <c r="CO2" s="50"/>
-      <c r="CP2" s="50"/>
-      <c r="CQ2" s="50"/>
-      <c r="CR2" s="50"/>
-      <c r="CS2" s="50"/>
-      <c r="CT2" s="50"/>
-      <c r="CU2" s="50"/>
-      <c r="CV2" s="50"/>
-      <c r="CW2" s="50"/>
-      <c r="CX2" s="50"/>
-      <c r="CY2" s="50"/>
-      <c r="CZ2" s="50"/>
-      <c r="DA2" s="50"/>
-      <c r="DB2" s="50"/>
-      <c r="DC2" s="50"/>
-      <c r="DD2" s="50"/>
-      <c r="DE2" s="50"/>
-      <c r="DF2" s="51"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="49"/>
+      <c r="BD2" s="49"/>
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="49"/>
+      <c r="BG2" s="49"/>
+      <c r="BH2" s="49"/>
+      <c r="BI2" s="49"/>
+      <c r="BJ2" s="49"/>
+      <c r="BK2" s="49"/>
+      <c r="BL2" s="49"/>
+      <c r="BM2" s="49"/>
+      <c r="BN2" s="49"/>
+      <c r="BO2" s="49"/>
+      <c r="BP2" s="49"/>
+      <c r="BQ2" s="49"/>
+      <c r="BR2" s="49"/>
+      <c r="BS2" s="49"/>
+      <c r="BT2" s="49"/>
+      <c r="BU2" s="49"/>
+      <c r="BV2" s="49"/>
+      <c r="BW2" s="49"/>
+      <c r="BX2" s="49"/>
+      <c r="BY2" s="49"/>
+      <c r="BZ2" s="49"/>
+      <c r="CA2" s="49"/>
+      <c r="CB2" s="49"/>
+      <c r="CC2" s="49"/>
+      <c r="CD2" s="49"/>
+      <c r="CE2" s="49"/>
+      <c r="CF2" s="49"/>
+      <c r="CG2" s="49"/>
+      <c r="CH2" s="49"/>
+      <c r="CI2" s="49"/>
+      <c r="CJ2" s="49"/>
+      <c r="CK2" s="49"/>
+      <c r="CL2" s="49"/>
+      <c r="CM2" s="49"/>
+      <c r="CN2" s="49"/>
+      <c r="CO2" s="49"/>
+      <c r="CP2" s="49"/>
+      <c r="CQ2" s="49"/>
+      <c r="CR2" s="49"/>
+      <c r="CS2" s="49"/>
+      <c r="CT2" s="49"/>
+      <c r="CU2" s="49"/>
+      <c r="CV2" s="49"/>
+      <c r="CW2" s="49"/>
+      <c r="CX2" s="49"/>
+      <c r="CY2" s="49"/>
+      <c r="CZ2" s="49"/>
+      <c r="DA2" s="49"/>
+      <c r="DB2" s="49"/>
+      <c r="DC2" s="49"/>
+      <c r="DD2" s="49"/>
+      <c r="DE2" s="49"/>
+      <c r="DF2" s="50"/>
     </row>
     <row r="3" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="96"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="93" t="s">
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="94"/>
-      <c r="AO3" s="94"/>
-      <c r="AP3" s="94"/>
-      <c r="AQ3" s="94"/>
-      <c r="AR3" s="94"/>
-      <c r="AS3" s="94"/>
-      <c r="AT3" s="94"/>
-      <c r="AU3" s="94"/>
-      <c r="AV3" s="94"/>
-      <c r="AW3" s="94"/>
-      <c r="AX3" s="94"/>
-      <c r="AY3" s="94"/>
-      <c r="AZ3" s="94"/>
-      <c r="BA3" s="94"/>
-      <c r="BB3" s="94"/>
-      <c r="BC3" s="94"/>
-      <c r="BD3" s="94"/>
-      <c r="BE3" s="94"/>
-      <c r="BF3" s="94"/>
-      <c r="BG3" s="94"/>
-      <c r="BH3" s="94"/>
-      <c r="BI3" s="94"/>
-      <c r="BJ3" s="94"/>
-      <c r="BK3" s="94"/>
-      <c r="BL3" s="94"/>
-      <c r="BM3" s="94"/>
-      <c r="BN3" s="94"/>
-      <c r="BO3" s="94"/>
-      <c r="BP3" s="94"/>
-      <c r="BQ3" s="94"/>
-      <c r="BR3" s="94"/>
-      <c r="BS3" s="94"/>
-      <c r="BT3" s="94"/>
-      <c r="BU3" s="94"/>
-      <c r="BV3" s="94"/>
-      <c r="BW3" s="94"/>
-      <c r="BX3" s="94"/>
-      <c r="BY3" s="94"/>
-      <c r="BZ3" s="94"/>
-      <c r="CA3" s="94"/>
-      <c r="CB3" s="94"/>
-      <c r="CC3" s="94"/>
-      <c r="CD3" s="94"/>
-      <c r="CE3" s="94"/>
-      <c r="CF3" s="94"/>
-      <c r="CG3" s="94"/>
-      <c r="CH3" s="94"/>
-      <c r="CI3" s="94"/>
-      <c r="CJ3" s="94"/>
-      <c r="CK3" s="94"/>
-      <c r="CL3" s="94"/>
-      <c r="CM3" s="94"/>
-      <c r="CN3" s="94"/>
-      <c r="CO3" s="94"/>
-      <c r="CP3" s="94"/>
-      <c r="CQ3" s="94"/>
-      <c r="CR3" s="94"/>
-      <c r="CS3" s="94"/>
-      <c r="CT3" s="94"/>
-      <c r="CU3" s="94"/>
-      <c r="CV3" s="94"/>
-      <c r="CW3" s="94"/>
-      <c r="CX3" s="94"/>
-      <c r="CY3" s="94"/>
-      <c r="CZ3" s="94"/>
-      <c r="DA3" s="94"/>
-      <c r="DB3" s="94"/>
-      <c r="DC3" s="94"/>
-      <c r="DD3" s="94"/>
-      <c r="DE3" s="94"/>
-      <c r="DF3" s="95"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="93"/>
+      <c r="AJ3" s="93"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="93"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="93"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="93"/>
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="93"/>
+      <c r="AT3" s="93"/>
+      <c r="AU3" s="93"/>
+      <c r="AV3" s="93"/>
+      <c r="AW3" s="93"/>
+      <c r="AX3" s="93"/>
+      <c r="AY3" s="93"/>
+      <c r="AZ3" s="93"/>
+      <c r="BA3" s="93"/>
+      <c r="BB3" s="93"/>
+      <c r="BC3" s="93"/>
+      <c r="BD3" s="93"/>
+      <c r="BE3" s="93"/>
+      <c r="BF3" s="93"/>
+      <c r="BG3" s="93"/>
+      <c r="BH3" s="93"/>
+      <c r="BI3" s="93"/>
+      <c r="BJ3" s="93"/>
+      <c r="BK3" s="93"/>
+      <c r="BL3" s="93"/>
+      <c r="BM3" s="93"/>
+      <c r="BN3" s="93"/>
+      <c r="BO3" s="93"/>
+      <c r="BP3" s="93"/>
+      <c r="BQ3" s="93"/>
+      <c r="BR3" s="93"/>
+      <c r="BS3" s="93"/>
+      <c r="BT3" s="93"/>
+      <c r="BU3" s="93"/>
+      <c r="BV3" s="93"/>
+      <c r="BW3" s="93"/>
+      <c r="BX3" s="93"/>
+      <c r="BY3" s="93"/>
+      <c r="BZ3" s="93"/>
+      <c r="CA3" s="93"/>
+      <c r="CB3" s="93"/>
+      <c r="CC3" s="93"/>
+      <c r="CD3" s="93"/>
+      <c r="CE3" s="93"/>
+      <c r="CF3" s="93"/>
+      <c r="CG3" s="93"/>
+      <c r="CH3" s="93"/>
+      <c r="CI3" s="93"/>
+      <c r="CJ3" s="93"/>
+      <c r="CK3" s="93"/>
+      <c r="CL3" s="93"/>
+      <c r="CM3" s="93"/>
+      <c r="CN3" s="93"/>
+      <c r="CO3" s="93"/>
+      <c r="CP3" s="93"/>
+      <c r="CQ3" s="93"/>
+      <c r="CR3" s="93"/>
+      <c r="CS3" s="93"/>
+      <c r="CT3" s="93"/>
+      <c r="CU3" s="93"/>
+      <c r="CV3" s="93"/>
+      <c r="CW3" s="93"/>
+      <c r="CX3" s="93"/>
+      <c r="CY3" s="93"/>
+      <c r="CZ3" s="93"/>
+      <c r="DA3" s="93"/>
+      <c r="DB3" s="93"/>
+      <c r="DC3" s="93"/>
+      <c r="DD3" s="93"/>
+      <c r="DE3" s="93"/>
+      <c r="DF3" s="94"/>
     </row>
     <row r="4" spans="2:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="98" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="71" t="s">
+      <c r="H4" s="98"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56"/>
-      <c r="AN4" s="56"/>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="56"/>
-      <c r="AQ4" s="56"/>
-      <c r="AR4" s="56"/>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="56"/>
-      <c r="AU4" s="56"/>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="56"/>
-      <c r="BC4" s="56"/>
-      <c r="BD4" s="56"/>
-      <c r="BE4" s="56"/>
-      <c r="BF4" s="56"/>
-      <c r="BG4" s="56"/>
-      <c r="BH4" s="56"/>
-      <c r="BI4" s="56"/>
-      <c r="BJ4" s="56"/>
-      <c r="BK4" s="56"/>
-      <c r="BL4" s="56"/>
-      <c r="BM4" s="56"/>
-      <c r="BN4" s="56"/>
-      <c r="BO4" s="56"/>
-      <c r="BP4" s="56"/>
-      <c r="BQ4" s="56"/>
-      <c r="BR4" s="56"/>
-      <c r="BS4" s="56"/>
-      <c r="BT4" s="56"/>
-      <c r="BU4" s="56"/>
-      <c r="BV4" s="56"/>
-      <c r="BW4" s="56"/>
-      <c r="BX4" s="56"/>
-      <c r="BY4" s="56"/>
-      <c r="BZ4" s="56"/>
-      <c r="CA4" s="56"/>
-      <c r="CB4" s="56"/>
-      <c r="CC4" s="56"/>
-      <c r="CD4" s="56"/>
-      <c r="CE4" s="56"/>
-      <c r="CF4" s="56"/>
-      <c r="CG4" s="56"/>
-      <c r="CH4" s="56"/>
-      <c r="CI4" s="56"/>
-      <c r="CJ4" s="56"/>
-      <c r="CK4" s="56"/>
-      <c r="CL4" s="56"/>
-      <c r="CM4" s="56"/>
-      <c r="CN4" s="56"/>
-      <c r="CO4" s="56"/>
-      <c r="CP4" s="56"/>
-      <c r="CQ4" s="56"/>
-      <c r="CR4" s="56"/>
-      <c r="CS4" s="56"/>
-      <c r="CT4" s="56"/>
-      <c r="CU4" s="56"/>
-      <c r="CV4" s="56"/>
-      <c r="CW4" s="56"/>
-      <c r="CX4" s="56"/>
-      <c r="CY4" s="56"/>
-      <c r="CZ4" s="56"/>
-      <c r="DA4" s="56"/>
-      <c r="DB4" s="56"/>
-      <c r="DC4" s="56"/>
-      <c r="DD4" s="56"/>
-      <c r="DE4" s="56"/>
-      <c r="DF4" s="57"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="55"/>
+      <c r="AZ4" s="55"/>
+      <c r="BA4" s="55"/>
+      <c r="BB4" s="55"/>
+      <c r="BC4" s="55"/>
+      <c r="BD4" s="55"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="55"/>
+      <c r="BG4" s="55"/>
+      <c r="BH4" s="55"/>
+      <c r="BI4" s="55"/>
+      <c r="BJ4" s="55"/>
+      <c r="BK4" s="55"/>
+      <c r="BL4" s="55"/>
+      <c r="BM4" s="55"/>
+      <c r="BN4" s="55"/>
+      <c r="BO4" s="55"/>
+      <c r="BP4" s="55"/>
+      <c r="BQ4" s="55"/>
+      <c r="BR4" s="55"/>
+      <c r="BS4" s="55"/>
+      <c r="BT4" s="55"/>
+      <c r="BU4" s="55"/>
+      <c r="BV4" s="55"/>
+      <c r="BW4" s="55"/>
+      <c r="BX4" s="55"/>
+      <c r="BY4" s="55"/>
+      <c r="BZ4" s="55"/>
+      <c r="CA4" s="55"/>
+      <c r="CB4" s="55"/>
+      <c r="CC4" s="55"/>
+      <c r="CD4" s="55"/>
+      <c r="CE4" s="55"/>
+      <c r="CF4" s="55"/>
+      <c r="CG4" s="55"/>
+      <c r="CH4" s="55"/>
+      <c r="CI4" s="55"/>
+      <c r="CJ4" s="55"/>
+      <c r="CK4" s="55"/>
+      <c r="CL4" s="55"/>
+      <c r="CM4" s="55"/>
+      <c r="CN4" s="55"/>
+      <c r="CO4" s="55"/>
+      <c r="CP4" s="55"/>
+      <c r="CQ4" s="55"/>
+      <c r="CR4" s="55"/>
+      <c r="CS4" s="55"/>
+      <c r="CT4" s="55"/>
+      <c r="CU4" s="55"/>
+      <c r="CV4" s="55"/>
+      <c r="CW4" s="55"/>
+      <c r="CX4" s="55"/>
+      <c r="CY4" s="55"/>
+      <c r="CZ4" s="55"/>
+      <c r="DA4" s="55"/>
+      <c r="DB4" s="55"/>
+      <c r="DC4" s="55"/>
+      <c r="DD4" s="55"/>
+      <c r="DE4" s="55"/>
+      <c r="DF4" s="56"/>
     </row>
     <row r="5" spans="2:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="101"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="72" t="s">
+      <c r="B5" s="99"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="58"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="59"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="59"/>
-      <c r="AO5" s="59"/>
-      <c r="AP5" s="59"/>
-      <c r="AQ5" s="59"/>
-      <c r="AR5" s="59"/>
-      <c r="AS5" s="59"/>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="59"/>
-      <c r="AV5" s="59"/>
-      <c r="AW5" s="59"/>
-      <c r="AX5" s="59"/>
-      <c r="AY5" s="59"/>
-      <c r="AZ5" s="59"/>
-      <c r="BA5" s="59"/>
-      <c r="BB5" s="59"/>
-      <c r="BC5" s="59"/>
-      <c r="BD5" s="59"/>
-      <c r="BE5" s="59"/>
-      <c r="BF5" s="59"/>
-      <c r="BG5" s="59"/>
-      <c r="BH5" s="59"/>
-      <c r="BI5" s="59"/>
-      <c r="BJ5" s="59"/>
-      <c r="BK5" s="59"/>
-      <c r="BL5" s="59"/>
-      <c r="BM5" s="59"/>
-      <c r="BN5" s="59"/>
-      <c r="BO5" s="59"/>
-      <c r="BP5" s="59"/>
-      <c r="BQ5" s="59"/>
-      <c r="BR5" s="59"/>
-      <c r="BS5" s="59"/>
-      <c r="BT5" s="59"/>
-      <c r="BU5" s="59"/>
-      <c r="BV5" s="59"/>
-      <c r="BW5" s="59"/>
-      <c r="BX5" s="59"/>
-      <c r="BY5" s="59"/>
-      <c r="BZ5" s="59"/>
-      <c r="CA5" s="59"/>
-      <c r="CB5" s="59"/>
-      <c r="CC5" s="59"/>
-      <c r="CD5" s="59"/>
-      <c r="CE5" s="59"/>
-      <c r="CF5" s="59"/>
-      <c r="CG5" s="59"/>
-      <c r="CH5" s="59"/>
-      <c r="CI5" s="59"/>
-      <c r="CJ5" s="59"/>
-      <c r="CK5" s="59"/>
-      <c r="CL5" s="59"/>
-      <c r="CM5" s="59"/>
-      <c r="CN5" s="59"/>
-      <c r="CO5" s="59"/>
-      <c r="CP5" s="59"/>
-      <c r="CQ5" s="59"/>
-      <c r="CR5" s="59"/>
-      <c r="CS5" s="59"/>
-      <c r="CT5" s="59"/>
-      <c r="CU5" s="59"/>
-      <c r="CV5" s="59"/>
-      <c r="CW5" s="59"/>
-      <c r="CX5" s="59"/>
-      <c r="CY5" s="59"/>
-      <c r="CZ5" s="59"/>
-      <c r="DA5" s="59"/>
-      <c r="DB5" s="59"/>
-      <c r="DC5" s="59"/>
-      <c r="DD5" s="59"/>
-      <c r="DE5" s="59"/>
-      <c r="DF5" s="60"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="58"/>
+      <c r="AR5" s="58"/>
+      <c r="AS5" s="58"/>
+      <c r="AT5" s="58"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="58"/>
+      <c r="BC5" s="58"/>
+      <c r="BD5" s="58"/>
+      <c r="BE5" s="58"/>
+      <c r="BF5" s="58"/>
+      <c r="BG5" s="58"/>
+      <c r="BH5" s="58"/>
+      <c r="BI5" s="58"/>
+      <c r="BJ5" s="58"/>
+      <c r="BK5" s="58"/>
+      <c r="BL5" s="58"/>
+      <c r="BM5" s="58"/>
+      <c r="BN5" s="58"/>
+      <c r="BO5" s="58"/>
+      <c r="BP5" s="58"/>
+      <c r="BQ5" s="58"/>
+      <c r="BR5" s="58"/>
+      <c r="BS5" s="58"/>
+      <c r="BT5" s="58"/>
+      <c r="BU5" s="58"/>
+      <c r="BV5" s="58"/>
+      <c r="BW5" s="58"/>
+      <c r="BX5" s="58"/>
+      <c r="BY5" s="58"/>
+      <c r="BZ5" s="58"/>
+      <c r="CA5" s="58"/>
+      <c r="CB5" s="58"/>
+      <c r="CC5" s="58"/>
+      <c r="CD5" s="58"/>
+      <c r="CE5" s="58"/>
+      <c r="CF5" s="58"/>
+      <c r="CG5" s="58"/>
+      <c r="CH5" s="58"/>
+      <c r="CI5" s="58"/>
+      <c r="CJ5" s="58"/>
+      <c r="CK5" s="58"/>
+      <c r="CL5" s="58"/>
+      <c r="CM5" s="58"/>
+      <c r="CN5" s="58"/>
+      <c r="CO5" s="58"/>
+      <c r="CP5" s="58"/>
+      <c r="CQ5" s="58"/>
+      <c r="CR5" s="58"/>
+      <c r="CS5" s="58"/>
+      <c r="CT5" s="58"/>
+      <c r="CU5" s="58"/>
+      <c r="CV5" s="58"/>
+      <c r="CW5" s="58"/>
+      <c r="CX5" s="58"/>
+      <c r="CY5" s="58"/>
+      <c r="CZ5" s="58"/>
+      <c r="DA5" s="58"/>
+      <c r="DB5" s="58"/>
+      <c r="DC5" s="58"/>
+      <c r="DD5" s="58"/>
+      <c r="DE5" s="58"/>
+      <c r="DF5" s="59"/>
     </row>
     <row r="6" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="104"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="70" t="s">
+      <c r="B6" s="101"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="58"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="59"/>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="59"/>
-      <c r="AV6" s="59"/>
-      <c r="AW6" s="59"/>
-      <c r="AX6" s="59"/>
-      <c r="AY6" s="59"/>
-      <c r="AZ6" s="59"/>
-      <c r="BA6" s="59"/>
-      <c r="BB6" s="59"/>
-      <c r="BC6" s="59"/>
-      <c r="BD6" s="59"/>
-      <c r="BE6" s="59"/>
-      <c r="BF6" s="59"/>
-      <c r="BG6" s="59"/>
-      <c r="BH6" s="59"/>
-      <c r="BI6" s="59"/>
-      <c r="BJ6" s="59"/>
-      <c r="BK6" s="59"/>
-      <c r="BL6" s="59"/>
-      <c r="BM6" s="59"/>
-      <c r="BN6" s="59"/>
-      <c r="BO6" s="59"/>
-      <c r="BP6" s="59"/>
-      <c r="BQ6" s="59"/>
-      <c r="BR6" s="59"/>
-      <c r="BS6" s="59"/>
-      <c r="BT6" s="59"/>
-      <c r="BU6" s="59"/>
-      <c r="BV6" s="59"/>
-      <c r="BW6" s="59"/>
-      <c r="BX6" s="59"/>
-      <c r="BY6" s="59"/>
-      <c r="BZ6" s="59"/>
-      <c r="CA6" s="59"/>
-      <c r="CB6" s="59"/>
-      <c r="CC6" s="59"/>
-      <c r="CD6" s="59"/>
-      <c r="CE6" s="59"/>
-      <c r="CF6" s="59"/>
-      <c r="CG6" s="59"/>
-      <c r="CH6" s="59"/>
-      <c r="CI6" s="59"/>
-      <c r="CJ6" s="59"/>
-      <c r="CK6" s="59"/>
-      <c r="CL6" s="59"/>
-      <c r="CM6" s="59"/>
-      <c r="CN6" s="59"/>
-      <c r="CO6" s="59"/>
-      <c r="CP6" s="59"/>
-      <c r="CQ6" s="59"/>
-      <c r="CR6" s="59"/>
-      <c r="CS6" s="59"/>
-      <c r="CT6" s="59"/>
-      <c r="CU6" s="59"/>
-      <c r="CV6" s="59"/>
-      <c r="CW6" s="59"/>
-      <c r="CX6" s="59"/>
-      <c r="CY6" s="59"/>
-      <c r="CZ6" s="59"/>
-      <c r="DA6" s="59"/>
-      <c r="DB6" s="59"/>
-      <c r="DC6" s="59"/>
-      <c r="DD6" s="59"/>
-      <c r="DE6" s="59"/>
-      <c r="DF6" s="60"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="58"/>
+      <c r="AI6" s="58"/>
+      <c r="AJ6" s="58"/>
+      <c r="AK6" s="58"/>
+      <c r="AL6" s="58"/>
+      <c r="AM6" s="58"/>
+      <c r="AN6" s="58"/>
+      <c r="AO6" s="58"/>
+      <c r="AP6" s="58"/>
+      <c r="AQ6" s="58"/>
+      <c r="AR6" s="58"/>
+      <c r="AS6" s="58"/>
+      <c r="AT6" s="58"/>
+      <c r="AU6" s="58"/>
+      <c r="AV6" s="58"/>
+      <c r="AW6" s="58"/>
+      <c r="AX6" s="58"/>
+      <c r="AY6" s="58"/>
+      <c r="AZ6" s="58"/>
+      <c r="BA6" s="58"/>
+      <c r="BB6" s="58"/>
+      <c r="BC6" s="58"/>
+      <c r="BD6" s="58"/>
+      <c r="BE6" s="58"/>
+      <c r="BF6" s="58"/>
+      <c r="BG6" s="58"/>
+      <c r="BH6" s="58"/>
+      <c r="BI6" s="58"/>
+      <c r="BJ6" s="58"/>
+      <c r="BK6" s="58"/>
+      <c r="BL6" s="58"/>
+      <c r="BM6" s="58"/>
+      <c r="BN6" s="58"/>
+      <c r="BO6" s="58"/>
+      <c r="BP6" s="58"/>
+      <c r="BQ6" s="58"/>
+      <c r="BR6" s="58"/>
+      <c r="BS6" s="58"/>
+      <c r="BT6" s="58"/>
+      <c r="BU6" s="58"/>
+      <c r="BV6" s="58"/>
+      <c r="BW6" s="58"/>
+      <c r="BX6" s="58"/>
+      <c r="BY6" s="58"/>
+      <c r="BZ6" s="58"/>
+      <c r="CA6" s="58"/>
+      <c r="CB6" s="58"/>
+      <c r="CC6" s="58"/>
+      <c r="CD6" s="58"/>
+      <c r="CE6" s="58"/>
+      <c r="CF6" s="58"/>
+      <c r="CG6" s="58"/>
+      <c r="CH6" s="58"/>
+      <c r="CI6" s="58"/>
+      <c r="CJ6" s="58"/>
+      <c r="CK6" s="58"/>
+      <c r="CL6" s="58"/>
+      <c r="CM6" s="58"/>
+      <c r="CN6" s="58"/>
+      <c r="CO6" s="58"/>
+      <c r="CP6" s="58"/>
+      <c r="CQ6" s="58"/>
+      <c r="CR6" s="58"/>
+      <c r="CS6" s="58"/>
+      <c r="CT6" s="58"/>
+      <c r="CU6" s="58"/>
+      <c r="CV6" s="58"/>
+      <c r="CW6" s="58"/>
+      <c r="CX6" s="58"/>
+      <c r="CY6" s="58"/>
+      <c r="CZ6" s="58"/>
+      <c r="DA6" s="58"/>
+      <c r="DB6" s="58"/>
+      <c r="DC6" s="58"/>
+      <c r="DD6" s="58"/>
+      <c r="DE6" s="58"/>
+      <c r="DF6" s="59"/>
     </row>
     <row r="7" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="F7" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="73" t="s">
+      <c r="J7" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="61"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="62"/>
-      <c r="AP7" s="62"/>
-      <c r="AQ7" s="62"/>
-      <c r="AR7" s="62"/>
-      <c r="AS7" s="62"/>
-      <c r="AT7" s="62"/>
-      <c r="AU7" s="62"/>
-      <c r="AV7" s="62"/>
-      <c r="AW7" s="62"/>
-      <c r="AX7" s="62"/>
-      <c r="AY7" s="62"/>
-      <c r="AZ7" s="62"/>
-      <c r="BA7" s="62"/>
-      <c r="BB7" s="62"/>
-      <c r="BC7" s="62"/>
-      <c r="BD7" s="62"/>
-      <c r="BE7" s="62"/>
-      <c r="BF7" s="62"/>
-      <c r="BG7" s="62"/>
-      <c r="BH7" s="62"/>
-      <c r="BI7" s="62"/>
-      <c r="BJ7" s="62"/>
-      <c r="BK7" s="62"/>
-      <c r="BL7" s="62"/>
-      <c r="BM7" s="62"/>
-      <c r="BN7" s="62"/>
-      <c r="BO7" s="62"/>
-      <c r="BP7" s="62"/>
-      <c r="BQ7" s="62"/>
-      <c r="BR7" s="62"/>
-      <c r="BS7" s="62"/>
-      <c r="BT7" s="62"/>
-      <c r="BU7" s="62"/>
-      <c r="BV7" s="62"/>
-      <c r="BW7" s="62"/>
-      <c r="BX7" s="62"/>
-      <c r="BY7" s="62"/>
-      <c r="BZ7" s="62"/>
-      <c r="CA7" s="62"/>
-      <c r="CB7" s="62"/>
-      <c r="CC7" s="62"/>
-      <c r="CD7" s="62"/>
-      <c r="CE7" s="62"/>
-      <c r="CF7" s="62"/>
-      <c r="CG7" s="62"/>
-      <c r="CH7" s="62"/>
-      <c r="CI7" s="62"/>
-      <c r="CJ7" s="62"/>
-      <c r="CK7" s="62"/>
-      <c r="CL7" s="62"/>
-      <c r="CM7" s="62"/>
-      <c r="CN7" s="62"/>
-      <c r="CO7" s="62"/>
-      <c r="CP7" s="62"/>
-      <c r="CQ7" s="62"/>
-      <c r="CR7" s="62"/>
-      <c r="CS7" s="62"/>
-      <c r="CT7" s="62"/>
-      <c r="CU7" s="62"/>
-      <c r="CV7" s="62"/>
-      <c r="CW7" s="62"/>
-      <c r="CX7" s="62"/>
-      <c r="CY7" s="62"/>
-      <c r="CZ7" s="62"/>
-      <c r="DA7" s="62"/>
-      <c r="DB7" s="62"/>
-      <c r="DC7" s="62"/>
-      <c r="DD7" s="62"/>
-      <c r="DE7" s="62"/>
-      <c r="DF7" s="63"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="61"/>
+      <c r="AO7" s="61"/>
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="61"/>
+      <c r="AS7" s="61"/>
+      <c r="AT7" s="61"/>
+      <c r="AU7" s="61"/>
+      <c r="AV7" s="61"/>
+      <c r="AW7" s="61"/>
+      <c r="AX7" s="61"/>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="61"/>
+      <c r="BA7" s="61"/>
+      <c r="BB7" s="61"/>
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="61"/>
+      <c r="BG7" s="61"/>
+      <c r="BH7" s="61"/>
+      <c r="BI7" s="61"/>
+      <c r="BJ7" s="61"/>
+      <c r="BK7" s="61"/>
+      <c r="BL7" s="61"/>
+      <c r="BM7" s="61"/>
+      <c r="BN7" s="61"/>
+      <c r="BO7" s="61"/>
+      <c r="BP7" s="61"/>
+      <c r="BQ7" s="61"/>
+      <c r="BR7" s="61"/>
+      <c r="BS7" s="61"/>
+      <c r="BT7" s="61"/>
+      <c r="BU7" s="61"/>
+      <c r="BV7" s="61"/>
+      <c r="BW7" s="61"/>
+      <c r="BX7" s="61"/>
+      <c r="BY7" s="61"/>
+      <c r="BZ7" s="61"/>
+      <c r="CA7" s="61"/>
+      <c r="CB7" s="61"/>
+      <c r="CC7" s="61"/>
+      <c r="CD7" s="61"/>
+      <c r="CE7" s="61"/>
+      <c r="CF7" s="61"/>
+      <c r="CG7" s="61"/>
+      <c r="CH7" s="61"/>
+      <c r="CI7" s="61"/>
+      <c r="CJ7" s="61"/>
+      <c r="CK7" s="61"/>
+      <c r="CL7" s="61"/>
+      <c r="CM7" s="61"/>
+      <c r="CN7" s="61"/>
+      <c r="CO7" s="61"/>
+      <c r="CP7" s="61"/>
+      <c r="CQ7" s="61"/>
+      <c r="CR7" s="61"/>
+      <c r="CS7" s="61"/>
+      <c r="CT7" s="61"/>
+      <c r="CU7" s="61"/>
+      <c r="CV7" s="61"/>
+      <c r="CW7" s="61"/>
+      <c r="CX7" s="61"/>
+      <c r="CY7" s="61"/>
+      <c r="CZ7" s="61"/>
+      <c r="DA7" s="61"/>
+      <c r="DB7" s="61"/>
+      <c r="DC7" s="61"/>
+      <c r="DD7" s="61"/>
+      <c r="DE7" s="61"/>
+      <c r="DF7" s="62"/>
     </row>
     <row r="8" spans="2:110" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-      <c r="AG8" s="65"/>
-      <c r="AH8" s="65"/>
-      <c r="AI8" s="65"/>
-      <c r="AJ8" s="65"/>
-      <c r="AK8" s="65"/>
-      <c r="AL8" s="65"/>
-      <c r="AM8" s="65"/>
-      <c r="AN8" s="65"/>
-      <c r="AO8" s="65"/>
-      <c r="AP8" s="65"/>
-      <c r="AQ8" s="65"/>
-      <c r="AR8" s="65"/>
-      <c r="AS8" s="65"/>
-      <c r="AT8" s="65"/>
-      <c r="AU8" s="65"/>
-      <c r="AV8" s="65"/>
-      <c r="AW8" s="65"/>
-      <c r="AX8" s="65"/>
-      <c r="AY8" s="65"/>
-      <c r="AZ8" s="65"/>
-      <c r="BA8" s="65"/>
-      <c r="BB8" s="65"/>
-      <c r="BC8" s="65"/>
-      <c r="BD8" s="65"/>
-      <c r="BE8" s="65"/>
-      <c r="BF8" s="65"/>
-      <c r="BG8" s="65"/>
-      <c r="BH8" s="65"/>
-      <c r="BI8" s="65"/>
-      <c r="BJ8" s="65"/>
-      <c r="BK8" s="65"/>
-      <c r="BL8" s="65"/>
-      <c r="BM8" s="65"/>
-      <c r="BN8" s="65"/>
-      <c r="BO8" s="65"/>
-      <c r="BP8" s="65"/>
-      <c r="BQ8" s="65"/>
-      <c r="BR8" s="65"/>
-      <c r="BS8" s="65"/>
-      <c r="BT8" s="65"/>
-      <c r="BU8" s="65"/>
-      <c r="BV8" s="65"/>
-      <c r="BW8" s="65"/>
-      <c r="BX8" s="65"/>
-      <c r="BY8" s="65"/>
-      <c r="BZ8" s="65"/>
-      <c r="CA8" s="65"/>
-      <c r="CB8" s="65"/>
-      <c r="CC8" s="65"/>
-      <c r="CD8" s="65"/>
-      <c r="CE8" s="65"/>
-      <c r="CF8" s="65"/>
-      <c r="CG8" s="65"/>
-      <c r="CH8" s="65"/>
-      <c r="CI8" s="65"/>
-      <c r="CJ8" s="65"/>
-      <c r="CK8" s="65"/>
-      <c r="CL8" s="65"/>
-      <c r="CM8" s="65"/>
-      <c r="CN8" s="65"/>
-      <c r="CO8" s="65"/>
-      <c r="CP8" s="65"/>
-      <c r="CQ8" s="65"/>
-      <c r="CR8" s="65"/>
-      <c r="CS8" s="65"/>
-      <c r="CT8" s="65"/>
-      <c r="CU8" s="65"/>
-      <c r="CV8" s="65"/>
-      <c r="CW8" s="65"/>
-      <c r="CX8" s="65"/>
-      <c r="CY8" s="65"/>
-      <c r="CZ8" s="65"/>
-      <c r="DA8" s="65"/>
-      <c r="DB8" s="65"/>
-      <c r="DC8" s="65"/>
-      <c r="DD8" s="65"/>
-      <c r="DE8" s="65"/>
-      <c r="DF8" s="66"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="64"/>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="64"/>
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="64"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
+      <c r="AT8" s="64"/>
+      <c r="AU8" s="64"/>
+      <c r="AV8" s="64"/>
+      <c r="AW8" s="64"/>
+      <c r="AX8" s="64"/>
+      <c r="AY8" s="64"/>
+      <c r="AZ8" s="64"/>
+      <c r="BA8" s="64"/>
+      <c r="BB8" s="64"/>
+      <c r="BC8" s="64"/>
+      <c r="BD8" s="64"/>
+      <c r="BE8" s="64"/>
+      <c r="BF8" s="64"/>
+      <c r="BG8" s="64"/>
+      <c r="BH8" s="64"/>
+      <c r="BI8" s="64"/>
+      <c r="BJ8" s="64"/>
+      <c r="BK8" s="64"/>
+      <c r="BL8" s="64"/>
+      <c r="BM8" s="64"/>
+      <c r="BN8" s="64"/>
+      <c r="BO8" s="64"/>
+      <c r="BP8" s="64"/>
+      <c r="BQ8" s="64"/>
+      <c r="BR8" s="64"/>
+      <c r="BS8" s="64"/>
+      <c r="BT8" s="64"/>
+      <c r="BU8" s="64"/>
+      <c r="BV8" s="64"/>
+      <c r="BW8" s="64"/>
+      <c r="BX8" s="64"/>
+      <c r="BY8" s="64"/>
+      <c r="BZ8" s="64"/>
+      <c r="CA8" s="64"/>
+      <c r="CB8" s="64"/>
+      <c r="CC8" s="64"/>
+      <c r="CD8" s="64"/>
+      <c r="CE8" s="64"/>
+      <c r="CF8" s="64"/>
+      <c r="CG8" s="64"/>
+      <c r="CH8" s="64"/>
+      <c r="CI8" s="64"/>
+      <c r="CJ8" s="64"/>
+      <c r="CK8" s="64"/>
+      <c r="CL8" s="64"/>
+      <c r="CM8" s="64"/>
+      <c r="CN8" s="64"/>
+      <c r="CO8" s="64"/>
+      <c r="CP8" s="64"/>
+      <c r="CQ8" s="64"/>
+      <c r="CR8" s="64"/>
+      <c r="CS8" s="64"/>
+      <c r="CT8" s="64"/>
+      <c r="CU8" s="64"/>
+      <c r="CV8" s="64"/>
+      <c r="CW8" s="64"/>
+      <c r="CX8" s="64"/>
+      <c r="CY8" s="64"/>
+      <c r="CZ8" s="64"/>
+      <c r="DA8" s="64"/>
+      <c r="DB8" s="64"/>
+      <c r="DC8" s="64"/>
+      <c r="DD8" s="64"/>
+      <c r="DE8" s="64"/>
+      <c r="DF8" s="65"/>
     </row>
     <row r="9" spans="2:110" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="43"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="42"/>
     </row>
     <row r="10" spans="2:110" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="43"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="42"/>
     </row>
     <row r="11" spans="2:110" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="43"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="42"/>
     </row>
     <row r="12" spans="2:110" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="43"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="42"/>
     </row>
     <row r="13" spans="2:110" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="43"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="42"/>
     </row>
     <row r="14" spans="2:110" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="43"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="2:110" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="43"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="2:110" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="43"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="43"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="42"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="43"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="43"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="42"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="43"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="42"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="43"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="42"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="43"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="42"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="43"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="42"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="43"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="42"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="43"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="42"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="43"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="42"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="43"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="42"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="43"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="42"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="43"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="42"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="43"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="42"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="43"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="42"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="43"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="42"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="43"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="42"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="43"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="42"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="43"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="42"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="43"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="42"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="43"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="42"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="43"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="42"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="43"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="42"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="43"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="42"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="43"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="42"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="43"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="42"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="43"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="42"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="43"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="42"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="43"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="42"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="43"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="42"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="43"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="42"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="43"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="42"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="43"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="42"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="43"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="42"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="43"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="42"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="43"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="42"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-      <c r="C53" s="76"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="43"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="42"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="43"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="42"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="43"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="42"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="7"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="43"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="42"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="7"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="43"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="42"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="958jY7mTjyhUaHt08FbCPGUI9Lpkwl4pcYpTeXJZ91lQuVv4l0I/HZRw+ZhHGLhn4hvEkj2iEPxwU4CdQQas/g==" saltValue="GIuHcD0l32c2KvCo6ZbPCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>

--- a/form_reporting_templates/Form-3AA.xlsx
+++ b/form_reporting_templates/Form-3AA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD315D6-DE42-4ED6-90E6-5582C314BF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61EE9CC-60FE-493A-8BAD-947218E41854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dV4x4UN/0VvyFBtyDoIunEcfcYZ4v5uYvk1jvD8vzzLvThv6/Y3drfR5cofF0NFHWy380GJVRhDwCQZMDGpoHQ==" workbookSaltValue="zVm6vMVUmkQ3Bwhy95qLKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
-    <t>Focal point</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Fishery</t>
   </si>
   <si>
-    <t>aFOB</t>
-  </si>
-  <si>
     <t>Type of fate</t>
   </si>
   <si>
@@ -148,6 +142,12 @@
   </si>
   <si>
     <t>Main elements</t>
+  </si>
+  <si>
+    <t>Liaison officer</t>
+  </si>
+  <si>
+    <t>AFOB</t>
   </si>
 </sst>
 </file>
@@ -155,9 +155,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000000000"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -735,7 +735,7 @@
   <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -752,22 +752,22 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -775,7 +775,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -804,7 +804,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -964,6 +964,10 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1038,10 +1042,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1403,39 +1403,39 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="88"/>
+      <c r="B2" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="89"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="91"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="31"/>
       <c r="C4" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="36"/>
     </row>
@@ -1451,7 +1451,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="20"/>
       <c r="C6" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -1470,26 +1470,26 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
-      <c r="C8" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="85"/>
+      <c r="C8" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="86"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="85" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="85"/>
+      <c r="F8" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="86"/>
       <c r="H8" s="19"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
       <c r="C9" s="30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="23"/>
       <c r="F9" s="30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="19"/>
@@ -1497,12 +1497,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
       <c r="C10" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="19"/>
@@ -1519,9 +1519,9 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="20"/>
       <c r="C12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="106"/>
+        <v>28</v>
+      </c>
+      <c r="D12" s="82"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -1530,9 +1530,9 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
       <c r="C13" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="106"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="82"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
@@ -1559,7 +1559,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="20"/>
       <c r="C16" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -1579,7 +1579,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="20"/>
       <c r="C18" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="23"/>
@@ -1590,7 +1590,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="20"/>
       <c r="C19" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="23"/>
@@ -1601,7 +1601,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="20"/>
       <c r="C20" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="23"/>
@@ -1630,7 +1630,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="20"/>
       <c r="C23" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="23"/>
@@ -1650,10 +1650,10 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="20"/>
       <c r="C25" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="77" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -1681,7 +1681,7 @@
     <row r="28" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="20"/>
       <c r="C28" s="27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="23"/>
@@ -1700,11 +1700,11 @@
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="20"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="84"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="85"/>
       <c r="H30" s="19"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1721,7 +1721,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="u+hurOEPd55proXnTc6D2T6cvf63yQnYelqYz21c6NV6gCyTF4stSG33sC1PjU2E96T90TInId3yvrS+HXdF2Q==" saltValue="OU3i3guuf7iTbragYs/0dg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="y0wo9Z4lZQP+XEiHZEEKPZcOrJLBBNP8Qx/bikhXxOVIbTM8273YaE11zR6Ufs/jn5OFTXfjr88GiG/Hct6rlQ==" saltValue="KaZZ8+nOPRbRL0wn2+tMIg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -1882,16 +1882,16 @@
       <c r="DF1"/>
     </row>
     <row r="2" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="B2" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
       <c r="L2" s="49"/>
@@ -1995,133 +1995,133 @@
       <c r="DF2" s="50"/>
     </row>
     <row r="3" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="95"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
       <c r="J3" s="51"/>
-      <c r="K3" s="92" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="93"/>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="93"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="93"/>
-      <c r="AO3" s="93"/>
-      <c r="AP3" s="93"/>
-      <c r="AQ3" s="93"/>
-      <c r="AR3" s="93"/>
-      <c r="AS3" s="93"/>
-      <c r="AT3" s="93"/>
-      <c r="AU3" s="93"/>
-      <c r="AV3" s="93"/>
-      <c r="AW3" s="93"/>
-      <c r="AX3" s="93"/>
-      <c r="AY3" s="93"/>
-      <c r="AZ3" s="93"/>
-      <c r="BA3" s="93"/>
-      <c r="BB3" s="93"/>
-      <c r="BC3" s="93"/>
-      <c r="BD3" s="93"/>
-      <c r="BE3" s="93"/>
-      <c r="BF3" s="93"/>
-      <c r="BG3" s="93"/>
-      <c r="BH3" s="93"/>
-      <c r="BI3" s="93"/>
-      <c r="BJ3" s="93"/>
-      <c r="BK3" s="93"/>
-      <c r="BL3" s="93"/>
-      <c r="BM3" s="93"/>
-      <c r="BN3" s="93"/>
-      <c r="BO3" s="93"/>
-      <c r="BP3" s="93"/>
-      <c r="BQ3" s="93"/>
-      <c r="BR3" s="93"/>
-      <c r="BS3" s="93"/>
-      <c r="BT3" s="93"/>
-      <c r="BU3" s="93"/>
-      <c r="BV3" s="93"/>
-      <c r="BW3" s="93"/>
-      <c r="BX3" s="93"/>
-      <c r="BY3" s="93"/>
-      <c r="BZ3" s="93"/>
-      <c r="CA3" s="93"/>
-      <c r="CB3" s="93"/>
-      <c r="CC3" s="93"/>
-      <c r="CD3" s="93"/>
-      <c r="CE3" s="93"/>
-      <c r="CF3" s="93"/>
-      <c r="CG3" s="93"/>
-      <c r="CH3" s="93"/>
-      <c r="CI3" s="93"/>
-      <c r="CJ3" s="93"/>
-      <c r="CK3" s="93"/>
-      <c r="CL3" s="93"/>
-      <c r="CM3" s="93"/>
-      <c r="CN3" s="93"/>
-      <c r="CO3" s="93"/>
-      <c r="CP3" s="93"/>
-      <c r="CQ3" s="93"/>
-      <c r="CR3" s="93"/>
-      <c r="CS3" s="93"/>
-      <c r="CT3" s="93"/>
-      <c r="CU3" s="93"/>
-      <c r="CV3" s="93"/>
-      <c r="CW3" s="93"/>
-      <c r="CX3" s="93"/>
-      <c r="CY3" s="93"/>
-      <c r="CZ3" s="93"/>
-      <c r="DA3" s="93"/>
-      <c r="DB3" s="93"/>
-      <c r="DC3" s="93"/>
-      <c r="DD3" s="93"/>
-      <c r="DE3" s="93"/>
-      <c r="DF3" s="94"/>
+      <c r="K3" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="94"/>
+      <c r="AO3" s="94"/>
+      <c r="AP3" s="94"/>
+      <c r="AQ3" s="94"/>
+      <c r="AR3" s="94"/>
+      <c r="AS3" s="94"/>
+      <c r="AT3" s="94"/>
+      <c r="AU3" s="94"/>
+      <c r="AV3" s="94"/>
+      <c r="AW3" s="94"/>
+      <c r="AX3" s="94"/>
+      <c r="AY3" s="94"/>
+      <c r="AZ3" s="94"/>
+      <c r="BA3" s="94"/>
+      <c r="BB3" s="94"/>
+      <c r="BC3" s="94"/>
+      <c r="BD3" s="94"/>
+      <c r="BE3" s="94"/>
+      <c r="BF3" s="94"/>
+      <c r="BG3" s="94"/>
+      <c r="BH3" s="94"/>
+      <c r="BI3" s="94"/>
+      <c r="BJ3" s="94"/>
+      <c r="BK3" s="94"/>
+      <c r="BL3" s="94"/>
+      <c r="BM3" s="94"/>
+      <c r="BN3" s="94"/>
+      <c r="BO3" s="94"/>
+      <c r="BP3" s="94"/>
+      <c r="BQ3" s="94"/>
+      <c r="BR3" s="94"/>
+      <c r="BS3" s="94"/>
+      <c r="BT3" s="94"/>
+      <c r="BU3" s="94"/>
+      <c r="BV3" s="94"/>
+      <c r="BW3" s="94"/>
+      <c r="BX3" s="94"/>
+      <c r="BY3" s="94"/>
+      <c r="BZ3" s="94"/>
+      <c r="CA3" s="94"/>
+      <c r="CB3" s="94"/>
+      <c r="CC3" s="94"/>
+      <c r="CD3" s="94"/>
+      <c r="CE3" s="94"/>
+      <c r="CF3" s="94"/>
+      <c r="CG3" s="94"/>
+      <c r="CH3" s="94"/>
+      <c r="CI3" s="94"/>
+      <c r="CJ3" s="94"/>
+      <c r="CK3" s="94"/>
+      <c r="CL3" s="94"/>
+      <c r="CM3" s="94"/>
+      <c r="CN3" s="94"/>
+      <c r="CO3" s="94"/>
+      <c r="CP3" s="94"/>
+      <c r="CQ3" s="94"/>
+      <c r="CR3" s="94"/>
+      <c r="CS3" s="94"/>
+      <c r="CT3" s="94"/>
+      <c r="CU3" s="94"/>
+      <c r="CV3" s="94"/>
+      <c r="CW3" s="94"/>
+      <c r="CX3" s="94"/>
+      <c r="CY3" s="94"/>
+      <c r="CZ3" s="94"/>
+      <c r="DA3" s="94"/>
+      <c r="DB3" s="94"/>
+      <c r="DC3" s="94"/>
+      <c r="DD3" s="94"/>
+      <c r="DE3" s="94"/>
+      <c r="DF3" s="95"/>
     </row>
     <row r="4" spans="2:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="103"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="104"/>
       <c r="J4" s="70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="54"/>
       <c r="L4" s="55"/>
@@ -2225,16 +2225,16 @@
       <c r="DF4" s="56"/>
     </row>
     <row r="5" spans="2:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="99"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="104"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="105"/>
       <c r="J5" s="71" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K5" s="57"/>
       <c r="L5" s="58"/>
@@ -2338,16 +2338,16 @@
       <c r="DF5" s="59"/>
     </row>
     <row r="6" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="101"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="106"/>
       <c r="J6" s="69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" s="57"/>
       <c r="L6" s="58"/>
@@ -2452,31 +2452,31 @@
     </row>
     <row r="7" spans="2:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="80" t="s">
+      <c r="G7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="43" t="s">
+      <c r="H7" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="I7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="J7" s="72" t="s">
         <v>20</v>
-      </c>
-      <c r="J7" s="72" t="s">
-        <v>21</v>
       </c>
       <c r="K7" s="60"/>
       <c r="L7" s="61"/>
@@ -3181,7 +3181,7 @@
       <c r="I57" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="958jY7mTjyhUaHt08FbCPGUI9Lpkwl4pcYpTeXJZ91lQuVv4l0I/HZRw+ZhHGLhn4hvEkj2iEPxwU4CdQQas/g==" saltValue="GIuHcD0l32c2KvCo6ZbPCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7Cdy2vIPsw7GEHKmu4vJ20VGfqBpC1ZpQzJom/FttDRmK9KVzrTdfLyk32sn+6Z3IEBAysk3ahy3yeaeiC5POw==" saltValue="S2JezH7uvOe78WG7yE9bdA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="K3:DF3"/>
     <mergeCell ref="B2:I3"/>
